--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6177,28 +6177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9775.881937387578</v>
+        <v>9984.001029278603</v>
       </c>
       <c r="AB2" t="n">
-        <v>13375.79294820721</v>
+        <v>13660.55067129886</v>
       </c>
       <c r="AC2" t="n">
-        <v>12099.22604227312</v>
+        <v>12356.80688793286</v>
       </c>
       <c r="AD2" t="n">
-        <v>9775881.937387578</v>
+        <v>9984001.029278602</v>
       </c>
       <c r="AE2" t="n">
-        <v>13375792.94820721</v>
+        <v>13660550.67129886</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.149720290940398e-07</v>
+        <v>8.705857661392219e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>12099226.04227312</v>
+        <v>12356806.88793286</v>
       </c>
     </row>
     <row r="3">
@@ -6283,28 +6283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3262.575934188021</v>
+        <v>3377.049919583839</v>
       </c>
       <c r="AB3" t="n">
-        <v>4464.000327848123</v>
+        <v>4620.628684902495</v>
       </c>
       <c r="AC3" t="n">
-        <v>4037.962401821938</v>
+        <v>4179.642368308318</v>
       </c>
       <c r="AD3" t="n">
-        <v>3262575.934188021</v>
+        <v>3377049.919583839</v>
       </c>
       <c r="AE3" t="n">
-        <v>4464000.327848122</v>
+        <v>4620628.684902496</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.701314429108685e-07</v>
+        <v>1.640055338477571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.88611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>4037962.401821938</v>
+        <v>4179642.368308317</v>
       </c>
     </row>
     <row r="4">
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2513.799739903541</v>
+        <v>2617.773900240207</v>
       </c>
       <c r="AB4" t="n">
-        <v>3439.491705153745</v>
+        <v>3581.753738342598</v>
       </c>
       <c r="AC4" t="n">
-        <v>3111.231444170669</v>
+        <v>3239.916188577989</v>
       </c>
       <c r="AD4" t="n">
-        <v>2513799.739903541</v>
+        <v>2617773.900240207</v>
       </c>
       <c r="AE4" t="n">
-        <v>3439491.705153746</v>
+        <v>3581753.738342598</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.136439690267017e-06</v>
+        <v>1.921207682216584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.82916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3111231.444170669</v>
+        <v>3239916.18857799</v>
       </c>
     </row>
     <row r="5">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2225.156881032069</v>
+        <v>2318.801898018725</v>
       </c>
       <c r="AB5" t="n">
-        <v>3044.557811621562</v>
+        <v>3172.687055189288</v>
       </c>
       <c r="AC5" t="n">
-        <v>2753.989487144012</v>
+        <v>2869.890255536151</v>
       </c>
       <c r="AD5" t="n">
-        <v>2225156.881032069</v>
+        <v>2318801.898018725</v>
       </c>
       <c r="AE5" t="n">
-        <v>3044557.811621563</v>
+        <v>3172687.055189288</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224262115625264e-06</v>
+        <v>2.069675849699816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>2753989.487144012</v>
+        <v>2869890.255536151</v>
       </c>
     </row>
     <row r="6">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2063.227644584427</v>
+        <v>2156.787320716511</v>
       </c>
       <c r="AB6" t="n">
-        <v>2822.999086499997</v>
+        <v>2951.011562945517</v>
       </c>
       <c r="AC6" t="n">
-        <v>2553.576015788539</v>
+        <v>2669.371161148738</v>
       </c>
       <c r="AD6" t="n">
-        <v>2063227.644584427</v>
+        <v>2156787.320716511</v>
       </c>
       <c r="AE6" t="n">
-        <v>2822999.086499997</v>
+        <v>2951011.562945517</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.278822891512282e-06</v>
+        <v>2.161913548435247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.84444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2553576.015788539</v>
+        <v>2669371.161148738</v>
       </c>
     </row>
     <row r="7">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1964.59615034562</v>
+        <v>2047.741431781674</v>
       </c>
       <c r="AB7" t="n">
-        <v>2688.047124768037</v>
+        <v>2801.810166939781</v>
       </c>
       <c r="AC7" t="n">
-        <v>2431.503679878009</v>
+        <v>2534.409336972315</v>
       </c>
       <c r="AD7" t="n">
-        <v>1964596.15034562</v>
+        <v>2047741.431781674</v>
       </c>
       <c r="AE7" t="n">
-        <v>2688047.124768036</v>
+        <v>2801810.166939781</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316606958236178e-06</v>
+        <v>2.225789387933847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.39027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2431503.679878009</v>
+        <v>2534409.336972315</v>
       </c>
     </row>
     <row r="8">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1895.941038942434</v>
+        <v>1968.842517883051</v>
       </c>
       <c r="AB8" t="n">
-        <v>2594.110172496448</v>
+        <v>2693.857192169264</v>
       </c>
       <c r="AC8" t="n">
-        <v>2346.53193848988</v>
+        <v>2436.759242600944</v>
       </c>
       <c r="AD8" t="n">
-        <v>1895941.038942434</v>
+        <v>1968842.517883051</v>
       </c>
       <c r="AE8" t="n">
-        <v>2594110.172496448</v>
+        <v>2693857.192169264</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.34315792404216e-06</v>
+        <v>2.270675112986917e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.08611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2346531.93848988</v>
+        <v>2436759.242600944</v>
       </c>
     </row>
     <row r="9">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1832.78585626689</v>
+        <v>1916.016389048965</v>
       </c>
       <c r="AB9" t="n">
-        <v>2507.69846534975</v>
+        <v>2621.578152174144</v>
       </c>
       <c r="AC9" t="n">
-        <v>2268.367243393671</v>
+        <v>2371.378412738688</v>
       </c>
       <c r="AD9" t="n">
-        <v>1832785.85626689</v>
+        <v>1916016.389048964</v>
       </c>
       <c r="AE9" t="n">
-        <v>2507698.46534975</v>
+        <v>2621578.152174144</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.363581743892915e-06</v>
+        <v>2.305202593796971e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.85833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2268367.243393671</v>
+        <v>2371378.412738688</v>
       </c>
     </row>
     <row r="10">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1788.301912945374</v>
+        <v>1871.532445727449</v>
       </c>
       <c r="AB10" t="n">
-        <v>2446.833571604178</v>
+        <v>2560.713258428573</v>
       </c>
       <c r="AC10" t="n">
-        <v>2213.311209682762</v>
+        <v>2316.32237902778</v>
       </c>
       <c r="AD10" t="n">
-        <v>1788301.912945374</v>
+        <v>1871532.445727449</v>
       </c>
       <c r="AE10" t="n">
-        <v>2446833.571604178</v>
+        <v>2560713.258428573</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.380504337483541e-06</v>
+        <v>2.33381107789673e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.67638888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>2213311.209682762</v>
+        <v>2316322.37902778</v>
       </c>
     </row>
     <row r="11">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1745.664813809008</v>
+        <v>1818.651544095646</v>
       </c>
       <c r="AB11" t="n">
-        <v>2388.495611549744</v>
+        <v>2488.359275875209</v>
       </c>
       <c r="AC11" t="n">
-        <v>2160.540942658082</v>
+        <v>2250.873759019857</v>
       </c>
       <c r="AD11" t="n">
-        <v>1745664.813809008</v>
+        <v>1818651.544095646</v>
       </c>
       <c r="AE11" t="n">
-        <v>2388495.611549744</v>
+        <v>2488359.275875209</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.395676317944102e-06</v>
+        <v>2.359460063641342e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.51805555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>2160540.942658082</v>
+        <v>2250873.759019857</v>
       </c>
     </row>
     <row r="12">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1740.736637037738</v>
+        <v>1813.723367324375</v>
       </c>
       <c r="AB12" t="n">
-        <v>2381.752662675477</v>
+        <v>2481.616327000942</v>
       </c>
       <c r="AC12" t="n">
-        <v>2154.441531360586</v>
+        <v>2244.774347722362</v>
       </c>
       <c r="AD12" t="n">
-        <v>1740736.637037738</v>
+        <v>1813723.367324375</v>
       </c>
       <c r="AE12" t="n">
-        <v>2381752.662675477</v>
+        <v>2481616.327000942</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.395968086799113e-06</v>
+        <v>2.3599533133672e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.51527777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2154441.531360586</v>
+        <v>2244774.347722362</v>
       </c>
     </row>
     <row r="13">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1696.432547129162</v>
+        <v>1769.248685215208</v>
       </c>
       <c r="AB13" t="n">
-        <v>2321.133852304063</v>
+        <v>2420.764104854682</v>
       </c>
       <c r="AC13" t="n">
-        <v>2099.608095171985</v>
+        <v>2189.72977625111</v>
       </c>
       <c r="AD13" t="n">
-        <v>1696432.547129162</v>
+        <v>1769248.685215208</v>
       </c>
       <c r="AE13" t="n">
-        <v>2321133.852304063</v>
+        <v>2420764.104854682</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.41157772054219e-06</v>
+        <v>2.386342173700599e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.35416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2099608.095171985</v>
+        <v>2189729.77625111</v>
       </c>
     </row>
     <row r="14">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1671.529395530197</v>
+        <v>1744.345533616243</v>
       </c>
       <c r="AB14" t="n">
-        <v>2287.06026163685</v>
+        <v>2386.690514187468</v>
       </c>
       <c r="AC14" t="n">
-        <v>2068.786440175466</v>
+        <v>2158.908121254591</v>
       </c>
       <c r="AD14" t="n">
-        <v>1671529.395530197</v>
+        <v>1744345.533616243</v>
       </c>
       <c r="AE14" t="n">
-        <v>2287060.26163685</v>
+        <v>2386690.514187468</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.41887194191746e-06</v>
+        <v>2.398673416847047e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.28055555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>2068786.440175466</v>
+        <v>2158908.121254591</v>
       </c>
     </row>
     <row r="15">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1646.854121089325</v>
+        <v>1719.67025917537</v>
       </c>
       <c r="AB15" t="n">
-        <v>2253.298462550569</v>
+        <v>2352.928715101188</v>
       </c>
       <c r="AC15" t="n">
-        <v>2038.246819808998</v>
+        <v>2128.368500888122</v>
       </c>
       <c r="AD15" t="n">
-        <v>1646854.121089325</v>
+        <v>1719670.25917537</v>
       </c>
       <c r="AE15" t="n">
-        <v>2253298.462550569</v>
+        <v>2352928.715101188</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.426166163292729e-06</v>
+        <v>2.411004659993495e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.20694444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>2038246.819808997</v>
+        <v>2128368.500888122</v>
       </c>
     </row>
     <row r="16">
@@ -7661,28 +7661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1623.863366844114</v>
+        <v>1696.67950493016</v>
       </c>
       <c r="AB16" t="n">
-        <v>2221.84149831178</v>
+        <v>2321.471750862397</v>
       </c>
       <c r="AC16" t="n">
-        <v>2009.792064087031</v>
+        <v>2099.913745166155</v>
       </c>
       <c r="AD16" t="n">
-        <v>1623863.366844114</v>
+        <v>1696679.50493016</v>
       </c>
       <c r="AE16" t="n">
-        <v>2221841.498311779</v>
+        <v>2321471.750862397</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.432439193675461e-06</v>
+        <v>2.42160952909944e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.14583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2009792.064087031</v>
+        <v>2099913.745166156</v>
       </c>
     </row>
     <row r="17">
@@ -7767,28 +7767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1600.09327158793</v>
+        <v>1672.909409673975</v>
       </c>
       <c r="AB17" t="n">
-        <v>2189.318205319677</v>
+        <v>2288.948457870295</v>
       </c>
       <c r="AC17" t="n">
-        <v>1980.372748531366</v>
+        <v>2070.494429610491</v>
       </c>
       <c r="AD17" t="n">
-        <v>1600093.27158793</v>
+        <v>1672909.409673976</v>
       </c>
       <c r="AE17" t="n">
-        <v>2189318.205319677</v>
+        <v>2288948.457870294</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.437107495355634e-06</v>
+        <v>2.429501524713166e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.09861111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1980372.748531366</v>
+        <v>2070494.429610491</v>
       </c>
     </row>
     <row r="18">
@@ -7873,28 +7873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1582.215123834144</v>
+        <v>1655.03126192019</v>
       </c>
       <c r="AB18" t="n">
-        <v>2164.856534834733</v>
+        <v>2264.486787385351</v>
       </c>
       <c r="AC18" t="n">
-        <v>1958.245665545335</v>
+        <v>2048.36734662446</v>
       </c>
       <c r="AD18" t="n">
-        <v>1582215.123834144</v>
+        <v>1655031.261920189</v>
       </c>
       <c r="AE18" t="n">
-        <v>2164856.534834733</v>
+        <v>2264486.787385351</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.442505219173333e-06</v>
+        <v>2.438626644641538e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.04722222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1958245.665545336</v>
+        <v>2048367.34662446</v>
       </c>
     </row>
     <row r="19">
@@ -7979,28 +7979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1559.576292674909</v>
+        <v>1632.392430760954</v>
       </c>
       <c r="AB19" t="n">
-        <v>2133.881087287925</v>
+        <v>2233.511339838543</v>
       </c>
       <c r="AC19" t="n">
-        <v>1930.226471238081</v>
+        <v>2020.348152317206</v>
       </c>
       <c r="AD19" t="n">
-        <v>1559576.292674909</v>
+        <v>1632392.430760954</v>
       </c>
       <c r="AE19" t="n">
-        <v>2133881.087287925</v>
+        <v>2233511.339838543</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.445860561005957e-06</v>
+        <v>2.444299016488903e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.0125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1930226.471238081</v>
+        <v>2020348.152317206</v>
       </c>
     </row>
     <row r="20">
@@ -8085,28 +8085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1532.328467667033</v>
+        <v>1615.473659594536</v>
       </c>
       <c r="AB20" t="n">
-        <v>2096.599411022949</v>
+        <v>2210.362330725145</v>
       </c>
       <c r="AC20" t="n">
-        <v>1896.502905830672</v>
+        <v>1999.408452143751</v>
       </c>
       <c r="AD20" t="n">
-        <v>1532328.467667032</v>
+        <v>1615473.659594536</v>
       </c>
       <c r="AE20" t="n">
-        <v>2096599.411022949</v>
+        <v>2210362.330725145</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.449361787266087e-06</v>
+        <v>2.450218013199199e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.98055555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>1896502.905830672</v>
+        <v>1999408.452143752</v>
       </c>
     </row>
     <row r="21">
@@ -8191,28 +8191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1511.324538868898</v>
+        <v>1594.4697307964</v>
       </c>
       <c r="AB21" t="n">
-        <v>2067.8609090134</v>
+        <v>2181.623828715595</v>
       </c>
       <c r="AC21" t="n">
-        <v>1870.507166118174</v>
+        <v>1973.412712431253</v>
       </c>
       <c r="AD21" t="n">
-        <v>1511324.538868898</v>
+        <v>1594469.7307964</v>
       </c>
       <c r="AE21" t="n">
-        <v>2067860.9090134</v>
+        <v>2181623.828715595</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.452863013526216e-06</v>
+        <v>2.456137009909494e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.94583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1870507.166118174</v>
+        <v>1973412.712431253</v>
       </c>
     </row>
     <row r="22">
@@ -8297,28 +8297,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1499.484627984573</v>
+        <v>1582.629819912077</v>
       </c>
       <c r="AB22" t="n">
-        <v>2051.661020601464</v>
+        <v>2165.42394030366</v>
       </c>
       <c r="AC22" t="n">
-        <v>1855.853372319587</v>
+        <v>1958.758918632666</v>
       </c>
       <c r="AD22" t="n">
-        <v>1499484.627984573</v>
+        <v>1582629.819912076</v>
       </c>
       <c r="AE22" t="n">
-        <v>2051661.020601464</v>
+        <v>2165423.94030366</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.455197164366303e-06</v>
+        <v>2.460083007716357e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>1855853.372319587</v>
+        <v>1958758.918632666</v>
       </c>
     </row>
     <row r="23">
@@ -8403,28 +8403,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1493.731105022259</v>
+        <v>1576.876296949763</v>
       </c>
       <c r="AB23" t="n">
-        <v>2043.788796656908</v>
+        <v>2157.551716359103</v>
       </c>
       <c r="AC23" t="n">
-        <v>1848.732462379564</v>
+        <v>1951.638008692643</v>
       </c>
       <c r="AD23" t="n">
-        <v>1493731.10502226</v>
+        <v>1576876.296949763</v>
       </c>
       <c r="AE23" t="n">
-        <v>2043788.796656908</v>
+        <v>2157551.716359104</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.45621835535884e-06</v>
+        <v>2.46180938175686e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.91388888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>1848732.462379564</v>
+        <v>1951638.008692643</v>
       </c>
     </row>
     <row r="24">
@@ -8509,28 +8509,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1499.361947629663</v>
+        <v>1582.507139557166</v>
       </c>
       <c r="AB24" t="n">
-        <v>2051.4931639276</v>
+        <v>2165.256083629796</v>
       </c>
       <c r="AC24" t="n">
-        <v>1855.701535651089</v>
+        <v>1958.607081964168</v>
       </c>
       <c r="AD24" t="n">
-        <v>1499361.947629663</v>
+        <v>1582507.139557166</v>
       </c>
       <c r="AE24" t="n">
-        <v>2051493.1639276</v>
+        <v>2165256.083629796</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.455780702076324e-06</v>
+        <v>2.461069507168073e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.91805555555555</v>
       </c>
       <c r="AH24" t="n">
-        <v>1855701.535651089</v>
+        <v>1958607.081964168</v>
       </c>
     </row>
     <row r="25">
@@ -8615,28 +8615,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1505.679132720613</v>
+        <v>1588.824324648116</v>
       </c>
       <c r="AB25" t="n">
-        <v>2060.136615263575</v>
+        <v>2173.899534965771</v>
       </c>
       <c r="AC25" t="n">
-        <v>1863.520068122718</v>
+        <v>1966.425614435797</v>
       </c>
       <c r="AD25" t="n">
-        <v>1505679.132720613</v>
+        <v>1588824.324648116</v>
       </c>
       <c r="AE25" t="n">
-        <v>2060136.615263575</v>
+        <v>2173899.534965771</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.455780702076324e-06</v>
+        <v>2.461069507168073e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.91805555555555</v>
       </c>
       <c r="AH25" t="n">
-        <v>1863520.068122718</v>
+        <v>1966425.614435797</v>
       </c>
     </row>
   </sheetData>
@@ -8912,28 +8912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5868.044537141053</v>
+        <v>6029.408281788243</v>
       </c>
       <c r="AB2" t="n">
-        <v>8028.917415571002</v>
+        <v>8249.70240986329</v>
       </c>
       <c r="AC2" t="n">
-        <v>7262.648806084969</v>
+        <v>7462.36239039568</v>
       </c>
       <c r="AD2" t="n">
-        <v>5868044.537141053</v>
+        <v>6029408.281788243</v>
       </c>
       <c r="AE2" t="n">
-        <v>8028917.415571002</v>
+        <v>8249702.40986329</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.779119732548553e-07</v>
+        <v>1.174001859147879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.92222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>7262648.806084969</v>
+        <v>7462362.39039568</v>
       </c>
     </row>
     <row r="3">
@@ -9018,28 +9018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2570.315923775363</v>
+        <v>2671.051010013372</v>
       </c>
       <c r="AB3" t="n">
-        <v>3516.819641245238</v>
+        <v>3654.649830354446</v>
       </c>
       <c r="AC3" t="n">
-        <v>3181.179310572027</v>
+        <v>3305.855179878531</v>
       </c>
       <c r="AD3" t="n">
-        <v>2570315.923775363</v>
+        <v>2671051.010013372</v>
       </c>
       <c r="AE3" t="n">
-        <v>3516819.641245238</v>
+        <v>3654649.830354446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.094438475076627e-06</v>
+        <v>1.895338709381214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.15138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3181179.310572027</v>
+        <v>3305855.179878531</v>
       </c>
     </row>
     <row r="4">
@@ -9124,28 +9124,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2061.096096776733</v>
+        <v>2151.825866516903</v>
       </c>
       <c r="AB4" t="n">
-        <v>2820.082608752259</v>
+        <v>2944.223082425703</v>
       </c>
       <c r="AC4" t="n">
-        <v>2550.937882583743</v>
+        <v>2663.230563682042</v>
       </c>
       <c r="AD4" t="n">
-        <v>2061096.096776733</v>
+        <v>2151825.866516903</v>
       </c>
       <c r="AE4" t="n">
-        <v>2820082.608752259</v>
+        <v>2944223.082425703</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.24444838189215e-06</v>
+        <v>2.155124517037713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.84166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2550937.882583743</v>
+        <v>2663230.563682043</v>
       </c>
     </row>
     <row r="5">
@@ -9230,28 +9230,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1853.553277602163</v>
+        <v>1944.19770648776</v>
       </c>
       <c r="AB5" t="n">
-        <v>2536.113367414638</v>
+        <v>2660.137073965883</v>
       </c>
       <c r="AC5" t="n">
-        <v>2294.070267086051</v>
+        <v>2406.257325152411</v>
       </c>
       <c r="AD5" t="n">
-        <v>1853553.277602162</v>
+        <v>1944197.70648776</v>
       </c>
       <c r="AE5" t="n">
-        <v>2536113.367414637</v>
+        <v>2660137.073965883</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.322320727884916e-06</v>
+        <v>2.289983145559598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.85138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2294070.267086051</v>
+        <v>2406257.325152411</v>
       </c>
     </row>
     <row r="6">
@@ -9336,28 +9336,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1739.317170614049</v>
+        <v>1819.871121164338</v>
       </c>
       <c r="AB6" t="n">
-        <v>2379.810486092148</v>
+        <v>2490.027955024537</v>
       </c>
       <c r="AC6" t="n">
-        <v>2152.684713384508</v>
+        <v>2252.383181773179</v>
       </c>
       <c r="AD6" t="n">
-        <v>1739317.170614049</v>
+        <v>1819871.121164338</v>
       </c>
       <c r="AE6" t="n">
-        <v>2379810.486092147</v>
+        <v>2490027.955024537</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370764571031579e-06</v>
+        <v>2.373877757488909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.29027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2152684.713384508</v>
+        <v>2252383.181773179</v>
       </c>
     </row>
     <row r="7">
@@ -9442,28 +9442,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1654.526312087723</v>
+        <v>1735.165513984033</v>
       </c>
       <c r="AB7" t="n">
-        <v>2263.795892747757</v>
+        <v>2374.130006332796</v>
       </c>
       <c r="AC7" t="n">
-        <v>2047.7423900014</v>
+        <v>2147.546370640784</v>
       </c>
       <c r="AD7" t="n">
-        <v>1654526.312087723</v>
+        <v>1735165.513984033</v>
       </c>
       <c r="AE7" t="n">
-        <v>2263795.892747757</v>
+        <v>2374130.006332796</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402909551063476e-06</v>
+        <v>2.429546144843873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.94027777777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>2047742.3900014</v>
+        <v>2147546.370640784</v>
       </c>
     </row>
     <row r="8">
@@ -9548,28 +9548,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1596.356513149716</v>
+        <v>1676.995715046025</v>
       </c>
       <c r="AB8" t="n">
-        <v>2184.205407570364</v>
+        <v>2294.539521155403</v>
       </c>
       <c r="AC8" t="n">
-        <v>1975.747909023391</v>
+        <v>2075.551889662775</v>
       </c>
       <c r="AD8" t="n">
-        <v>1596356.513149716</v>
+        <v>1676995.715046025</v>
       </c>
       <c r="AE8" t="n">
-        <v>2184205.407570364</v>
+        <v>2294539.521155403</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.427206930336413e-06</v>
+        <v>2.471624127774151e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.68611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1975747.909023391</v>
+        <v>2075551.889662775</v>
       </c>
     </row>
     <row r="9">
@@ -9654,28 +9654,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1548.014153826467</v>
+        <v>1618.562877387467</v>
       </c>
       <c r="AB9" t="n">
-        <v>2118.06125882992</v>
+        <v>2214.589134796103</v>
       </c>
       <c r="AC9" t="n">
-        <v>1915.916465004839</v>
+        <v>2003.231855966535</v>
       </c>
       <c r="AD9" t="n">
-        <v>1548014.153826467</v>
+        <v>1618562.877387467</v>
       </c>
       <c r="AE9" t="n">
-        <v>2118061.25882992</v>
+        <v>2214589.134796103</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.446222270636972e-06</v>
+        <v>2.504554723110891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.49305555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1915916.465004839</v>
+        <v>2003231.855966534</v>
       </c>
     </row>
     <row r="10">
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1502.049677099206</v>
+        <v>1572.598400660207</v>
       </c>
       <c r="AB10" t="n">
-        <v>2055.170633962085</v>
+        <v>2151.698509928268</v>
       </c>
       <c r="AC10" t="n">
-        <v>1859.028033106844</v>
+        <v>1946.343424068539</v>
       </c>
       <c r="AD10" t="n">
-        <v>1502049.677099206</v>
+        <v>1572598.400660207</v>
       </c>
       <c r="AE10" t="n">
-        <v>2055170.633962085</v>
+        <v>2151698.509928268</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.464181203143056e-06</v>
+        <v>2.535655840928922e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.31527777777777</v>
       </c>
       <c r="AH10" t="n">
-        <v>1859028.033106844</v>
+        <v>1946343.424068539</v>
       </c>
     </row>
     <row r="11">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1482.656891749116</v>
+        <v>1553.205615310116</v>
       </c>
       <c r="AB11" t="n">
-        <v>2028.636569496784</v>
+        <v>2125.164445462966</v>
       </c>
       <c r="AC11" t="n">
-        <v>1835.026342513318</v>
+        <v>1922.341733475013</v>
       </c>
       <c r="AD11" t="n">
-        <v>1482656.891749116</v>
+        <v>1553205.615310116</v>
       </c>
       <c r="AE11" t="n">
-        <v>2028636.569496784</v>
+        <v>2125164.445462966</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.467501341925693e-06</v>
+        <v>2.541405627416289e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.28194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1835026.342513318</v>
+        <v>1922341.733475013</v>
       </c>
     </row>
     <row r="12">
@@ -9972,28 +9972,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1449.480035032872</v>
+        <v>1520.028758593872</v>
       </c>
       <c r="AB12" t="n">
-        <v>1983.242530478</v>
+        <v>2079.770406444183</v>
       </c>
       <c r="AC12" t="n">
-        <v>1793.964646867553</v>
+        <v>1881.280037829248</v>
       </c>
       <c r="AD12" t="n">
-        <v>1449480.035032872</v>
+        <v>1520028.758593872</v>
       </c>
       <c r="AE12" t="n">
-        <v>1983242.530478</v>
+        <v>2079770.406444183</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.47836725066887e-06</v>
+        <v>2.560223110465854e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.17916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1793964.646867553</v>
+        <v>1881280.037829248</v>
       </c>
     </row>
     <row r="13">
@@ -10078,28 +10078,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1418.115862043274</v>
+        <v>1488.664585604274</v>
       </c>
       <c r="AB13" t="n">
-        <v>1940.328685303976</v>
+        <v>2036.856561270159</v>
       </c>
       <c r="AC13" t="n">
-        <v>1755.146438846977</v>
+        <v>1842.461829808673</v>
       </c>
       <c r="AD13" t="n">
-        <v>1418115.862043274</v>
+        <v>1488664.585604274</v>
       </c>
       <c r="AE13" t="n">
-        <v>1940328.685303976</v>
+        <v>2036856.561270159</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.486667597625463e-06</v>
+        <v>2.574597576684272e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="AH13" t="n">
-        <v>1755146.438846977</v>
+        <v>1842461.829808673</v>
       </c>
     </row>
     <row r="14">
@@ -10184,28 +10184,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1386.061670842744</v>
+        <v>1456.610394403745</v>
       </c>
       <c r="AB14" t="n">
-        <v>1896.4707267723</v>
+        <v>1992.998602738483</v>
       </c>
       <c r="AC14" t="n">
-        <v>1715.474222322533</v>
+        <v>1802.789613284228</v>
       </c>
       <c r="AD14" t="n">
-        <v>1386061.670842744</v>
+        <v>1456610.394403745</v>
       </c>
       <c r="AE14" t="n">
-        <v>1896470.7267723</v>
+        <v>1992998.602738483</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.494213367586002e-06</v>
+        <v>2.58766527324647e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1715474.222322533</v>
+        <v>1802789.613284228</v>
       </c>
     </row>
     <row r="15">
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1352.199017377892</v>
+        <v>1432.75287841963</v>
       </c>
       <c r="AB15" t="n">
-        <v>1850.138350386854</v>
+        <v>1960.355696849695</v>
       </c>
       <c r="AC15" t="n">
-        <v>1673.563742911416</v>
+        <v>1773.26210051886</v>
       </c>
       <c r="AD15" t="n">
-        <v>1352199.017377892</v>
+        <v>1432752.87841963</v>
       </c>
       <c r="AE15" t="n">
-        <v>1850138.350386854</v>
+        <v>1960355.696849695</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.498740829562326e-06</v>
+        <v>2.595505891183789e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.98611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1673563.742911416</v>
+        <v>1773262.10051886</v>
       </c>
     </row>
     <row r="16">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1339.702659577753</v>
+        <v>1420.256520619492</v>
       </c>
       <c r="AB16" t="n">
-        <v>1833.040282344307</v>
+        <v>1943.257628807148</v>
       </c>
       <c r="AC16" t="n">
-        <v>1658.09749048556</v>
+        <v>1757.795848093005</v>
       </c>
       <c r="AD16" t="n">
-        <v>1339702.659577753</v>
+        <v>1420256.520619492</v>
       </c>
       <c r="AE16" t="n">
-        <v>1833040.282344307</v>
+        <v>1943257.628807148</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.50145730674812e-06</v>
+        <v>2.600210261946181e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.95972222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1658097.49048556</v>
+        <v>1757795.848093005</v>
       </c>
     </row>
     <row r="17">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1342.602671317529</v>
+        <v>1423.156532359267</v>
       </c>
       <c r="AB17" t="n">
-        <v>1837.008206346156</v>
+        <v>1947.225552808997</v>
       </c>
       <c r="AC17" t="n">
-        <v>1661.686721389689</v>
+        <v>1761.385078997134</v>
       </c>
       <c r="AD17" t="n">
-        <v>1342602.671317529</v>
+        <v>1423156.532359267</v>
       </c>
       <c r="AE17" t="n">
-        <v>1837008.206346156</v>
+        <v>1947225.552808997</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.501608222147331e-06</v>
+        <v>2.600471615877424e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1661686.721389689</v>
+        <v>1761385.078997134</v>
       </c>
     </row>
     <row r="18">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1347.742884776867</v>
+        <v>1428.296745818605</v>
       </c>
       <c r="AB18" t="n">
-        <v>1844.041273171435</v>
+        <v>1954.258619634276</v>
       </c>
       <c r="AC18" t="n">
-        <v>1668.048562188135</v>
+        <v>1767.74691979558</v>
       </c>
       <c r="AD18" t="n">
-        <v>1347742.884776867</v>
+        <v>1428296.745818605</v>
       </c>
       <c r="AE18" t="n">
-        <v>1844041.273171435</v>
+        <v>1954258.619634276</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.502060968344963e-06</v>
+        <v>2.601255677671157e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.95416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1668048.562188135</v>
+        <v>1767746.91979558</v>
       </c>
     </row>
   </sheetData>
@@ -10905,28 +10905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1916.313796519341</v>
+        <v>2007.467452646495</v>
       </c>
       <c r="AB2" t="n">
-        <v>2621.985078195804</v>
+        <v>2746.705531924466</v>
       </c>
       <c r="AC2" t="n">
-        <v>2371.746502311966</v>
+        <v>2484.563810983021</v>
       </c>
       <c r="AD2" t="n">
-        <v>1916313.796519341</v>
+        <v>2007467.452646495</v>
       </c>
       <c r="AE2" t="n">
-        <v>2621985.078195804</v>
+        <v>2746705.531924467</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.181996796035218e-06</v>
+        <v>2.236592291657675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.78611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2371746.502311966</v>
+        <v>2484563.810983021</v>
       </c>
     </row>
     <row r="3">
@@ -11011,28 +11011,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1271.054653845261</v>
+        <v>1352.922262650556</v>
       </c>
       <c r="AB3" t="n">
-        <v>1739.11305236484</v>
+        <v>1851.127926476242</v>
       </c>
       <c r="AC3" t="n">
-        <v>1573.134543507638</v>
+        <v>1674.458875247711</v>
       </c>
       <c r="AD3" t="n">
-        <v>1271054.653845261</v>
+        <v>1352922.262650556</v>
       </c>
       <c r="AE3" t="n">
-        <v>1739113.05236484</v>
+        <v>1851127.926476242</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474001703333276e-06</v>
+        <v>2.789128412719708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1573134.543507638</v>
+        <v>1674458.875247711</v>
       </c>
     </row>
     <row r="4">
@@ -11117,28 +11117,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1100.517744847692</v>
+        <v>1173.355328894843</v>
       </c>
       <c r="AB4" t="n">
-        <v>1505.776929916928</v>
+        <v>1605.436525777661</v>
       </c>
       <c r="AC4" t="n">
-        <v>1362.06769309685</v>
+        <v>1452.215917001756</v>
       </c>
       <c r="AD4" t="n">
-        <v>1100517.744847692</v>
+        <v>1173355.328894843</v>
       </c>
       <c r="AE4" t="n">
-        <v>1505776.929916928</v>
+        <v>1605436.525777661</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.573357467638843e-06</v>
+        <v>2.977130899124899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.86666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1362067.693096851</v>
+        <v>1452215.917001756</v>
       </c>
     </row>
     <row r="5">
@@ -11223,28 +11223,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1006.913662263241</v>
+        <v>1070.635970206228</v>
       </c>
       <c r="AB5" t="n">
-        <v>1377.703694604205</v>
+        <v>1464.89136756162</v>
       </c>
       <c r="AC5" t="n">
-        <v>1246.217587610459</v>
+        <v>1325.084191429486</v>
       </c>
       <c r="AD5" t="n">
-        <v>1006913.662263241</v>
+        <v>1070635.970206228</v>
       </c>
       <c r="AE5" t="n">
-        <v>1377703.694604205</v>
+        <v>1464891.36756162</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.623540548593181e-06</v>
+        <v>3.072088087173621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.40694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1246217.587610459</v>
+        <v>1325084.191429486</v>
       </c>
     </row>
     <row r="6">
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>985.3683650383166</v>
+        <v>1049.090672981303</v>
       </c>
       <c r="AB6" t="n">
-        <v>1348.224468429634</v>
+        <v>1435.412141387049</v>
       </c>
       <c r="AC6" t="n">
-        <v>1219.551817407636</v>
+        <v>1298.418421226662</v>
       </c>
       <c r="AD6" t="n">
-        <v>985368.3650383166</v>
+        <v>1049090.672981303</v>
       </c>
       <c r="AE6" t="n">
-        <v>1348224.468429634</v>
+        <v>1435412.141387049</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.635833719430989e-06</v>
+        <v>3.095349411762738e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.29722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1219551.817407636</v>
+        <v>1298418.421226662</v>
       </c>
     </row>
     <row r="7">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>992.4154969039223</v>
+        <v>1056.137804846909</v>
       </c>
       <c r="AB7" t="n">
-        <v>1357.866665145672</v>
+        <v>1445.054338103086</v>
       </c>
       <c r="AC7" t="n">
-        <v>1228.273776402002</v>
+        <v>1307.140380221029</v>
       </c>
       <c r="AD7" t="n">
-        <v>992415.4969039223</v>
+        <v>1056137.804846909</v>
       </c>
       <c r="AE7" t="n">
-        <v>1357866.665145672</v>
+        <v>1445054.338103086</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.636002119031506e-06</v>
+        <v>3.095668060044781e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.29722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1228273.776402002</v>
+        <v>1307140.380221029</v>
       </c>
     </row>
   </sheetData>
@@ -11732,28 +11732,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2863.687936803033</v>
+        <v>2977.562165296131</v>
       </c>
       <c r="AB2" t="n">
-        <v>3918.224172129488</v>
+        <v>4074.031915330154</v>
       </c>
       <c r="AC2" t="n">
-        <v>3544.274356403466</v>
+        <v>3685.212027270596</v>
       </c>
       <c r="AD2" t="n">
-        <v>2863687.936803033</v>
+        <v>2977562.165296131</v>
       </c>
       <c r="AE2" t="n">
-        <v>3918224.172129488</v>
+        <v>4074031.915330154</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.806312467783985e-07</v>
+        <v>1.78649716325489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.81527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3544274.356403466</v>
+        <v>3685212.027270596</v>
       </c>
     </row>
     <row r="3">
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1682.355252337949</v>
+        <v>1767.73958849413</v>
       </c>
       <c r="AB3" t="n">
-        <v>2301.872676524311</v>
+        <v>2418.699292144255</v>
       </c>
       <c r="AC3" t="n">
-        <v>2082.185178975423</v>
+        <v>2187.862026367784</v>
       </c>
       <c r="AD3" t="n">
-        <v>1682355.252337949</v>
+        <v>1767739.58849413</v>
       </c>
       <c r="AE3" t="n">
-        <v>2301872.676524311</v>
+        <v>2418699.292144255</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.323457481893305e-06</v>
+        <v>2.411052110422034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.90694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2082185.178975423</v>
+        <v>2187862.026367784</v>
       </c>
     </row>
     <row r="4">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1434.393074522093</v>
+        <v>1510.366120753873</v>
       </c>
       <c r="AB4" t="n">
-        <v>1962.59988551743</v>
+        <v>2066.549559066</v>
       </c>
       <c r="AC4" t="n">
-        <v>1775.292106969885</v>
+        <v>1869.320969569263</v>
       </c>
       <c r="AD4" t="n">
-        <v>1434393.074522093</v>
+        <v>1510366.120753873</v>
       </c>
       <c r="AE4" t="n">
-        <v>1962599.88551743</v>
+        <v>2066549.559066</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.442190064261578e-06</v>
+        <v>2.627357089774564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.51527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1775292.106969886</v>
+        <v>1869320.969569263</v>
       </c>
     </row>
     <row r="5">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1309.032804206726</v>
+        <v>1384.920509583935</v>
       </c>
       <c r="AB5" t="n">
-        <v>1791.076433167143</v>
+        <v>1894.909339593515</v>
       </c>
       <c r="AC5" t="n">
-        <v>1620.138612177233</v>
+        <v>1714.061851744671</v>
       </c>
       <c r="AD5" t="n">
-        <v>1309032.804206727</v>
+        <v>1384920.509583935</v>
       </c>
       <c r="AE5" t="n">
-        <v>1791076.433167143</v>
+        <v>1894909.339593515</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.503409034817811e-06</v>
+        <v>2.738884758911554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.88333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1620138.612177233</v>
+        <v>1714061.851744671</v>
       </c>
     </row>
     <row r="6">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1233.834990291551</v>
+        <v>1309.722695668759</v>
       </c>
       <c r="AB6" t="n">
-        <v>1688.187466674987</v>
+        <v>1792.020373101359</v>
       </c>
       <c r="AC6" t="n">
-        <v>1527.069224241516</v>
+        <v>1620.992463808955</v>
       </c>
       <c r="AD6" t="n">
-        <v>1233834.990291551</v>
+        <v>1309722.695668759</v>
       </c>
       <c r="AE6" t="n">
-        <v>1688187.466674987</v>
+        <v>1792020.373101359</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.53981821204336e-06</v>
+        <v>2.805214372661448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.53194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1527069.224241516</v>
+        <v>1620992.463808955</v>
       </c>
     </row>
     <row r="7">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1171.11133911446</v>
+        <v>1237.502503221247</v>
       </c>
       <c r="AB7" t="n">
-        <v>1602.366199962298</v>
+        <v>1693.205519664648</v>
       </c>
       <c r="AC7" t="n">
-        <v>1449.438618772982</v>
+        <v>1531.608361296726</v>
       </c>
       <c r="AD7" t="n">
-        <v>1171111.33911446</v>
+        <v>1237502.503221247</v>
       </c>
       <c r="AE7" t="n">
-        <v>1602366.199962298</v>
+        <v>1693205.519664648</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566883441131379e-06</v>
+        <v>2.854521342174644e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.28055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1449438.618772982</v>
+        <v>1531608.361296726</v>
       </c>
     </row>
     <row r="8">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1125.136554096311</v>
+        <v>1191.527718203098</v>
       </c>
       <c r="AB8" t="n">
-        <v>1539.4614708361</v>
+        <v>1630.300790538449</v>
       </c>
       <c r="AC8" t="n">
-        <v>1392.537428707246</v>
+        <v>1474.707171230989</v>
       </c>
       <c r="AD8" t="n">
-        <v>1125136.554096311</v>
+        <v>1191527.718203098</v>
       </c>
       <c r="AE8" t="n">
-        <v>1539461.470836099</v>
+        <v>1630300.790538449</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.581704876108151e-06</v>
+        <v>2.881522777860442e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1392537.428707246</v>
+        <v>1474707.171230989</v>
       </c>
     </row>
     <row r="9">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1114.090045207649</v>
+        <v>1180.481209314436</v>
       </c>
       <c r="AB9" t="n">
-        <v>1524.347150037054</v>
+        <v>1615.186469739404</v>
       </c>
       <c r="AC9" t="n">
-        <v>1378.86559747218</v>
+        <v>1461.035339995923</v>
       </c>
       <c r="AD9" t="n">
-        <v>1114090.045207649</v>
+        <v>1180481.209314436</v>
       </c>
       <c r="AE9" t="n">
-        <v>1524347.150037054</v>
+        <v>1615186.469739404</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.585410234852344e-06</v>
+        <v>2.888273136781891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.11388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1378865.59747218</v>
+        <v>1461035.339995923</v>
       </c>
     </row>
     <row r="10">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1118.115796338127</v>
+        <v>1184.506960444913</v>
       </c>
       <c r="AB10" t="n">
-        <v>1529.855360337379</v>
+        <v>1620.694680039729</v>
       </c>
       <c r="AC10" t="n">
-        <v>1383.848111912263</v>
+        <v>1466.017854436006</v>
       </c>
       <c r="AD10" t="n">
-        <v>1118115.796338127</v>
+        <v>1184506.960444913</v>
       </c>
       <c r="AE10" t="n">
-        <v>1529855.360337379</v>
+        <v>1620694.680039729</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.586860157839203e-06</v>
+        <v>2.890914581577241e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>1383848.111912263</v>
+        <v>1466017.854436006</v>
       </c>
     </row>
   </sheetData>
@@ -12877,28 +12877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1375.426011371643</v>
+        <v>1463.281829333173</v>
       </c>
       <c r="AB2" t="n">
-        <v>1881.918548271759</v>
+        <v>2002.126754331863</v>
       </c>
       <c r="AC2" t="n">
-        <v>1702.310883313972</v>
+        <v>1811.046586900978</v>
       </c>
       <c r="AD2" t="n">
-        <v>1375426.011371643</v>
+        <v>1463281.829333173</v>
       </c>
       <c r="AE2" t="n">
-        <v>1881918.548271759</v>
+        <v>2002126.754331863</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.355627846058283e-06</v>
+        <v>2.656593794348249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.91944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1702310.883313973</v>
+        <v>1811046.586900978</v>
       </c>
     </row>
     <row r="3">
@@ -12983,28 +12983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>983.5677474805908</v>
+        <v>1045.186386758613</v>
       </c>
       <c r="AB3" t="n">
-        <v>1345.760784049514</v>
+        <v>1430.070124732212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1217.323263606951</v>
+        <v>1293.586239143795</v>
       </c>
       <c r="AD3" t="n">
-        <v>983567.7474805908</v>
+        <v>1045186.386758613</v>
       </c>
       <c r="AE3" t="n">
-        <v>1345760.784049514</v>
+        <v>1430070.124732212</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.604331600037754e-06</v>
+        <v>3.143973019682168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.14027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1217323.263606951</v>
+        <v>1293586.239143795</v>
       </c>
     </row>
     <row r="4">
@@ -13089,28 +13089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>885.1198943774776</v>
+        <v>955.4557532594446</v>
       </c>
       <c r="AB4" t="n">
-        <v>1211.060088221084</v>
+        <v>1307.296713342486</v>
       </c>
       <c r="AC4" t="n">
-        <v>1095.478213134772</v>
+        <v>1182.530149823539</v>
       </c>
       <c r="AD4" t="n">
-        <v>885119.8943774776</v>
+        <v>955455.7532594446</v>
       </c>
       <c r="AE4" t="n">
-        <v>1211060.088221084</v>
+        <v>1307296.713342486</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664496221253603e-06</v>
+        <v>3.26187629219614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.59444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1095478.213134772</v>
+        <v>1182530.149823539</v>
       </c>
     </row>
     <row r="5">
@@ -13195,28 +13195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>891.5062082303076</v>
+        <v>961.8420671122747</v>
       </c>
       <c r="AB5" t="n">
-        <v>1219.798124578809</v>
+        <v>1316.034749700211</v>
       </c>
       <c r="AC5" t="n">
-        <v>1103.382303566427</v>
+        <v>1190.434240255194</v>
       </c>
       <c r="AD5" t="n">
-        <v>891506.2082303076</v>
+        <v>961842.0671122747</v>
       </c>
       <c r="AE5" t="n">
-        <v>1219798.124578809</v>
+        <v>1316034.749700211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.665720501336484e-06</v>
+        <v>3.264275486694971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1103382.303566427</v>
+        <v>1190434.240255194</v>
       </c>
     </row>
   </sheetData>
@@ -13492,28 +13492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6630.689203641725</v>
+        <v>6803.590873117428</v>
       </c>
       <c r="AB2" t="n">
-        <v>9072.401493785386</v>
+        <v>9308.973185845363</v>
       </c>
       <c r="AC2" t="n">
-        <v>8206.544228413635</v>
+        <v>8420.537850213856</v>
       </c>
       <c r="AD2" t="n">
-        <v>6630689.203641725</v>
+        <v>6803590.873117427</v>
       </c>
       <c r="AE2" t="n">
-        <v>9072401.493785387</v>
+        <v>9308973.185845364</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.35030643335089e-07</v>
+        <v>1.092558287910862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.70694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>8206544.228413636</v>
+        <v>8420537.850213856</v>
       </c>
     </row>
     <row r="3">
@@ -13598,28 +13598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2730.176418566334</v>
+        <v>2831.933483466495</v>
       </c>
       <c r="AB3" t="n">
-        <v>3735.547822765546</v>
+        <v>3874.776328166825</v>
       </c>
       <c r="AC3" t="n">
-        <v>3379.032381434958</v>
+        <v>3504.973113689169</v>
       </c>
       <c r="AD3" t="n">
-        <v>2730176.418566334</v>
+        <v>2831933.483466495</v>
       </c>
       <c r="AE3" t="n">
-        <v>3735547.822765546</v>
+        <v>3874776.328166825</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.061724573018322e-06</v>
+        <v>1.826677175195291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.56527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3379032.381434958</v>
+        <v>3504973.113689169</v>
       </c>
     </row>
     <row r="4">
@@ -13704,28 +13704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2177.63722251065</v>
+        <v>2259.042963939333</v>
       </c>
       <c r="AB4" t="n">
-        <v>2979.539318413007</v>
+        <v>3090.922245203753</v>
       </c>
       <c r="AC4" t="n">
-        <v>2695.176267673367</v>
+        <v>2795.928964258008</v>
       </c>
       <c r="AD4" t="n">
-        <v>2177637.22251065</v>
+        <v>2259042.963939333</v>
       </c>
       <c r="AE4" t="n">
-        <v>2979539.318413007</v>
+        <v>3090922.245203753</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216369341084381e-06</v>
+        <v>2.092740592458558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.07777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2695176.267673367</v>
+        <v>2795928.964258008</v>
       </c>
     </row>
     <row r="5">
@@ -13810,28 +13810,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1953.069815514088</v>
+        <v>2034.390216088196</v>
       </c>
       <c r="AB5" t="n">
-        <v>2672.27628494553</v>
+        <v>2783.542444613898</v>
       </c>
       <c r="AC5" t="n">
-        <v>2417.23798687365</v>
+        <v>2517.885060426305</v>
       </c>
       <c r="AD5" t="n">
-        <v>1953069.815514088</v>
+        <v>2034390.216088196</v>
       </c>
       <c r="AE5" t="n">
-        <v>2672276.28494553</v>
+        <v>2783542.444613898</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.29638380038355e-06</v>
+        <v>2.230403965994194e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.02361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2417237.98687365</v>
+        <v>2517885.060426305</v>
       </c>
     </row>
     <row r="6">
@@ -13916,28 +13916,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1819.45391218267</v>
+        <v>1900.688971902207</v>
       </c>
       <c r="AB6" t="n">
-        <v>2489.457111289858</v>
+        <v>2600.606503836028</v>
       </c>
       <c r="AC6" t="n">
-        <v>2251.866818563353</v>
+        <v>2352.408269084069</v>
       </c>
       <c r="AD6" t="n">
-        <v>1819453.91218267</v>
+        <v>1900688.971902207</v>
       </c>
       <c r="AE6" t="n">
-        <v>2489457.111289858</v>
+        <v>2600606.503836028</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34648631228116e-06</v>
+        <v>2.316604396152023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.42638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2251866.818563353</v>
+        <v>2352408.269084069</v>
       </c>
     </row>
     <row r="7">
@@ -14022,28 +14022,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1738.776139075572</v>
+        <v>1810.006174014236</v>
       </c>
       <c r="AB7" t="n">
-        <v>2379.070222872576</v>
+        <v>2476.530299123015</v>
       </c>
       <c r="AC7" t="n">
-        <v>2152.015099847647</v>
+        <v>2240.173723206819</v>
       </c>
       <c r="AD7" t="n">
-        <v>1738776.139075572</v>
+        <v>1810006.174014236</v>
       </c>
       <c r="AE7" t="n">
-        <v>2379070.222872576</v>
+        <v>2476530.299123015</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.380885051792953e-06</v>
+        <v>2.375786781036502e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.04305555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>2152015.099847646</v>
+        <v>2240173.723206819</v>
       </c>
     </row>
     <row r="8">
@@ -14128,28 +14128,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1669.780397207707</v>
+        <v>1751.100708273265</v>
       </c>
       <c r="AB8" t="n">
-        <v>2284.667204971659</v>
+        <v>2395.933242170478</v>
       </c>
       <c r="AC8" t="n">
-        <v>2066.621773479725</v>
+        <v>2167.268736251152</v>
       </c>
       <c r="AD8" t="n">
-        <v>1669780.397207707</v>
+        <v>1751100.708273265</v>
       </c>
       <c r="AE8" t="n">
-        <v>2284667.204971659</v>
+        <v>2395933.242170479</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.404515490240184e-06</v>
+        <v>2.41644250630497e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.78888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2066621.773479725</v>
+        <v>2167268.736251153</v>
       </c>
     </row>
     <row r="9">
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1624.103359378137</v>
+        <v>1705.423670443693</v>
       </c>
       <c r="AB9" t="n">
-        <v>2222.169866684552</v>
+        <v>2333.435903883371</v>
       </c>
       <c r="AC9" t="n">
-        <v>2010.089093443174</v>
+        <v>2110.736056214602</v>
       </c>
       <c r="AD9" t="n">
-        <v>1624103.359378137</v>
+        <v>1705423.670443693</v>
       </c>
       <c r="AE9" t="n">
-        <v>2222169.866684552</v>
+        <v>2333435.903883371</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422761778155135e-06</v>
+        <v>2.447834901765433e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>2010089.093443174</v>
+        <v>2110736.056214602</v>
       </c>
     </row>
     <row r="10">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1577.857062045216</v>
+        <v>1649.001756129308</v>
       </c>
       <c r="AB10" t="n">
-        <v>2158.893642431005</v>
+        <v>2256.236951559245</v>
       </c>
       <c r="AC10" t="n">
-        <v>1952.851863223647</v>
+        <v>2040.904863550881</v>
       </c>
       <c r="AD10" t="n">
-        <v>1577857.062045216</v>
+        <v>1649001.756129308</v>
       </c>
       <c r="AE10" t="n">
-        <v>2158893.642431005</v>
+        <v>2256236.951559246</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.440260267385047e-06</v>
+        <v>2.47794072364145e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.42361111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1952851.863223647</v>
+        <v>2040904.863550881</v>
       </c>
     </row>
     <row r="11">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1555.786668701201</v>
+        <v>1626.931362785293</v>
       </c>
       <c r="AB11" t="n">
-        <v>2128.695956580688</v>
+        <v>2226.039265708928</v>
       </c>
       <c r="AC11" t="n">
-        <v>1925.536202128166</v>
+        <v>2013.5892024554</v>
       </c>
       <c r="AD11" t="n">
-        <v>1555786.668701201</v>
+        <v>1626931.362785293</v>
       </c>
       <c r="AE11" t="n">
-        <v>2128695.956580688</v>
+        <v>2226039.265708928</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.446541776339374e-06</v>
+        <v>2.48874794175079e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.35972222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1925536.202128166</v>
+        <v>2013589.2024554</v>
       </c>
     </row>
     <row r="12">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1520.225367975841</v>
+        <v>1591.370062059933</v>
       </c>
       <c r="AB12" t="n">
-        <v>2080.039416074386</v>
+        <v>2177.382725202627</v>
       </c>
       <c r="AC12" t="n">
-        <v>1881.523373557902</v>
+        <v>1969.576373885136</v>
       </c>
       <c r="AD12" t="n">
-        <v>1520225.367975841</v>
+        <v>1591370.062059933</v>
       </c>
       <c r="AE12" t="n">
-        <v>2080039.416074386</v>
+        <v>2177382.725202627</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.457908316351966e-06</v>
+        <v>2.508303860234357e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.24861111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1881523.373557902</v>
+        <v>1969576.373885136</v>
       </c>
     </row>
     <row r="13">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1490.876896461871</v>
+        <v>1562.021590545963</v>
       </c>
       <c r="AB13" t="n">
-        <v>2039.883542585789</v>
+        <v>2137.22685171403</v>
       </c>
       <c r="AC13" t="n">
-        <v>1845.199920275934</v>
+        <v>1933.252920603168</v>
       </c>
       <c r="AD13" t="n">
-        <v>1490876.896461871</v>
+        <v>1562021.590545963</v>
       </c>
       <c r="AE13" t="n">
-        <v>2039883.542585789</v>
+        <v>2137226.851714029</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.466582781098418e-06</v>
+        <v>2.523228113813922e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.16388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1845199.920275934</v>
+        <v>1933252.920603168</v>
       </c>
     </row>
     <row r="14">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1464.345859219592</v>
+        <v>1535.490553303684</v>
       </c>
       <c r="AB14" t="n">
-        <v>2003.582606964148</v>
+        <v>2100.925916092388</v>
       </c>
       <c r="AC14" t="n">
-        <v>1812.363495001339</v>
+        <v>1900.416495328573</v>
       </c>
       <c r="AD14" t="n">
-        <v>1464345.859219592</v>
+        <v>1535490.553303685</v>
       </c>
       <c r="AE14" t="n">
-        <v>2003582.606964148</v>
+        <v>2100925.916092388</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.473761648474792e-06</v>
+        <v>2.535579220224595e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.09444444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>1812363.495001339</v>
+        <v>1900416.495328573</v>
       </c>
     </row>
     <row r="15">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1435.136414776021</v>
+        <v>1506.281108860113</v>
       </c>
       <c r="AB15" t="n">
-        <v>1963.616956446711</v>
+        <v>2060.960265574952</v>
       </c>
       <c r="AC15" t="n">
-        <v>1776.212110077144</v>
+        <v>1864.265110404378</v>
       </c>
       <c r="AD15" t="n">
-        <v>1435136.414776021</v>
+        <v>1506281.108860113</v>
       </c>
       <c r="AE15" t="n">
-        <v>1963616.956446711</v>
+        <v>2060960.265574952</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.479145799007073e-06</v>
+        <v>2.544842550032601e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.04305555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1776212.110077144</v>
+        <v>1864265.110404378</v>
       </c>
     </row>
     <row r="16">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1395.572784000541</v>
+        <v>1476.807754211526</v>
       </c>
       <c r="AB16" t="n">
-        <v>1909.484251395496</v>
+        <v>2020.633521472118</v>
       </c>
       <c r="AC16" t="n">
-        <v>1727.245754420288</v>
+        <v>1827.787094159777</v>
       </c>
       <c r="AD16" t="n">
-        <v>1395572.784000541</v>
+        <v>1476807.754211526</v>
       </c>
       <c r="AE16" t="n">
-        <v>1909484.251395496</v>
+        <v>2020633.521472118</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.486324666383447e-06</v>
+        <v>2.557193656443274e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.97638888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1727245.754420288</v>
+        <v>1827787.094159777</v>
       </c>
     </row>
     <row r="17">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1382.188717091947</v>
+        <v>1463.423687302932</v>
       </c>
       <c r="AB17" t="n">
-        <v>1891.171580587798</v>
+        <v>2002.32085066442</v>
       </c>
       <c r="AC17" t="n">
-        <v>1710.680819212482</v>
+        <v>1811.222158951971</v>
       </c>
       <c r="AD17" t="n">
-        <v>1382188.717091947</v>
+        <v>1463423.687302932</v>
       </c>
       <c r="AE17" t="n">
-        <v>1891171.580587798</v>
+        <v>2002320.85066442</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.489315861123603e-06</v>
+        <v>2.562339950781055e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.94722222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>1710680.819212482</v>
+        <v>1811222.158951971</v>
       </c>
     </row>
     <row r="18">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1372.025890997267</v>
+        <v>1453.260861208252</v>
       </c>
       <c r="AB18" t="n">
-        <v>1877.266353572813</v>
+        <v>1988.415623649435</v>
       </c>
       <c r="AC18" t="n">
-        <v>1698.102687547699</v>
+        <v>1798.644027287188</v>
       </c>
       <c r="AD18" t="n">
-        <v>1372025.890997267</v>
+        <v>1453260.861208252</v>
       </c>
       <c r="AE18" t="n">
-        <v>1877266.353572813</v>
+        <v>1988415.623649435</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.491260137704704e-06</v>
+        <v>2.565685042100613e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.92916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1698102.687547699</v>
+        <v>1798644.027287188</v>
       </c>
     </row>
     <row r="19">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1378.181163137005</v>
+        <v>1459.41613334799</v>
       </c>
       <c r="AB19" t="n">
-        <v>1885.688268465844</v>
+        <v>1996.837538542466</v>
       </c>
       <c r="AC19" t="n">
-        <v>1705.72082670357</v>
+        <v>1806.26216644306</v>
       </c>
       <c r="AD19" t="n">
-        <v>1378181.163137005</v>
+        <v>1459416.13334799</v>
       </c>
       <c r="AE19" t="n">
-        <v>1885688.268465844</v>
+        <v>1996837.538542466</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.491110577967696e-06</v>
+        <v>2.565427727383724e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.93055555555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>1705720.82670357</v>
+        <v>1806262.16644306</v>
       </c>
     </row>
     <row r="20">
@@ -15400,28 +15400,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1384.22261306025</v>
+        <v>1465.457583271235</v>
       </c>
       <c r="AB20" t="n">
-        <v>1893.954446780788</v>
+        <v>2005.10371685741</v>
       </c>
       <c r="AC20" t="n">
-        <v>1713.19809256179</v>
+        <v>1813.739432301279</v>
       </c>
       <c r="AD20" t="n">
-        <v>1384222.61306025</v>
+        <v>1465457.583271235</v>
       </c>
       <c r="AE20" t="n">
-        <v>1893954.446780788</v>
+        <v>2005103.71685741</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.491260137704704e-06</v>
+        <v>2.565685042100613e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.92916666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1713198.09256179</v>
+        <v>1813739.432301279</v>
       </c>
     </row>
   </sheetData>
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1115.81200875375</v>
+        <v>1193.28394724547</v>
       </c>
       <c r="AB2" t="n">
-        <v>1526.7032165285</v>
+        <v>1632.70374059358</v>
       </c>
       <c r="AC2" t="n">
-        <v>1380.996804284442</v>
+        <v>1476.88078710542</v>
       </c>
       <c r="AD2" t="n">
-        <v>1115812.00875375</v>
+        <v>1193283.94724547</v>
       </c>
       <c r="AE2" t="n">
-        <v>1526703.2165285</v>
+        <v>1632703.74059358</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.463573152443127e-06</v>
+        <v>2.933967106967262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.98472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1380996.804284442</v>
+        <v>1476880.78710542</v>
       </c>
     </row>
     <row r="3">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>830.3351438320998</v>
+        <v>899.1896068408984</v>
       </c>
       <c r="AB3" t="n">
-        <v>1136.101175592283</v>
+        <v>1230.310889525443</v>
       </c>
       <c r="AC3" t="n">
-        <v>1027.673273921769</v>
+        <v>1112.891744981312</v>
       </c>
       <c r="AD3" t="n">
-        <v>830335.1438320997</v>
+        <v>899189.6068408984</v>
       </c>
       <c r="AE3" t="n">
-        <v>1136101.175592283</v>
+        <v>1230310.889525443</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.672092502155277e-06</v>
+        <v>3.351977585090884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1027673.273921769</v>
+        <v>1112891.744981312</v>
       </c>
     </row>
     <row r="4">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>832.9974234213604</v>
+        <v>901.8518864301591</v>
       </c>
       <c r="AB4" t="n">
-        <v>1139.743823977795</v>
+        <v>1233.953537910955</v>
       </c>
       <c r="AC4" t="n">
-        <v>1030.968273057857</v>
+        <v>1116.1867441174</v>
       </c>
       <c r="AD4" t="n">
-        <v>832997.4234213604</v>
+        <v>901851.8864301591</v>
       </c>
       <c r="AE4" t="n">
-        <v>1139743.823977795</v>
+        <v>1233953.537910955</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.676209193179637e-06</v>
+        <v>3.360230152470149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.83055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1030968.273057857</v>
+        <v>1116186.7441174</v>
       </c>
     </row>
   </sheetData>
@@ -16206,28 +16206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4119.130401001668</v>
+        <v>4256.273992366913</v>
       </c>
       <c r="AB2" t="n">
-        <v>5635.975937858718</v>
+        <v>5823.621849912895</v>
       </c>
       <c r="AC2" t="n">
-        <v>5098.086304491178</v>
+        <v>5267.82355406159</v>
       </c>
       <c r="AD2" t="n">
-        <v>4119130.401001668</v>
+        <v>4256273.992366914</v>
       </c>
       <c r="AE2" t="n">
-        <v>5635975.937858718</v>
+        <v>5823621.849912895</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.170979829612828e-07</v>
+        <v>1.447141243842437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.43194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>5098086.304491178</v>
+        <v>5267823.55406159</v>
       </c>
     </row>
     <row r="3">
@@ -16312,28 +16312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2102.973064627485</v>
+        <v>2200.944900361494</v>
       </c>
       <c r="AB3" t="n">
-        <v>2877.38052364709</v>
+        <v>3011.42991151088</v>
       </c>
       <c r="AC3" t="n">
-        <v>2602.76736489914</v>
+        <v>2724.023267324594</v>
       </c>
       <c r="AD3" t="n">
-        <v>2102973.064627485</v>
+        <v>2200944.900361494</v>
       </c>
       <c r="AE3" t="n">
-        <v>2877380.52364709</v>
+        <v>3011429.91151088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.200846379145573e-06</v>
+        <v>2.126788168638467e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.98472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2602767.36489914</v>
+        <v>2724023.267324594</v>
       </c>
     </row>
     <row r="4">
@@ -16418,28 +16418,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1750.065681525803</v>
+        <v>1828.494444134302</v>
       </c>
       <c r="AB4" t="n">
-        <v>2394.517072912444</v>
+        <v>2501.826765946202</v>
       </c>
       <c r="AC4" t="n">
-        <v>2165.987724199499</v>
+        <v>2263.055930740215</v>
       </c>
       <c r="AD4" t="n">
-        <v>1750065.681525803</v>
+        <v>1828494.444134302</v>
       </c>
       <c r="AE4" t="n">
-        <v>2394517.072912444</v>
+        <v>2501826.765946202</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336277843114989e-06</v>
+        <v>2.366647354820534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.16111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2165987.724199499</v>
+        <v>2263055.930740215</v>
       </c>
     </row>
     <row r="5">
@@ -16524,28 +16524,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1589.404925090774</v>
+        <v>1667.748346844701</v>
       </c>
       <c r="AB5" t="n">
-        <v>2174.693938105699</v>
+        <v>2281.88686401726</v>
       </c>
       <c r="AC5" t="n">
-        <v>1967.144200855002</v>
+        <v>2064.106784363779</v>
       </c>
       <c r="AD5" t="n">
-        <v>1589404.925090774</v>
+        <v>1667748.346844701</v>
       </c>
       <c r="AE5" t="n">
-        <v>2174693.938105699</v>
+        <v>2281886.864017259</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406092685046409e-06</v>
+        <v>2.490294627605549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.35833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1967144.200855002</v>
+        <v>2064106.784363779</v>
       </c>
     </row>
     <row r="6">
@@ -16630,28 +16630,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1489.040102160951</v>
+        <v>1567.468775260899</v>
       </c>
       <c r="AB6" t="n">
-        <v>2037.370359589625</v>
+        <v>2144.679930153834</v>
       </c>
       <c r="AC6" t="n">
-        <v>1842.92659193765</v>
+        <v>1939.994687697139</v>
       </c>
       <c r="AD6" t="n">
-        <v>1489040.102160951</v>
+        <v>1567468.775260899</v>
       </c>
       <c r="AE6" t="n">
-        <v>2037370.359589625</v>
+        <v>2144679.930153835</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.448696842483401e-06</v>
+        <v>2.565749756209322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.90833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1842926.59193765</v>
+        <v>1939994.687697139</v>
       </c>
     </row>
     <row r="7">
@@ -16736,28 +16736,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1421.84499668415</v>
+        <v>1500.273669784098</v>
       </c>
       <c r="AB7" t="n">
-        <v>1945.431051837431</v>
+        <v>2052.740622401641</v>
       </c>
       <c r="AC7" t="n">
-        <v>1759.761842679697</v>
+        <v>1856.829938439186</v>
       </c>
       <c r="AD7" t="n">
-        <v>1421844.99668415</v>
+        <v>1500273.669784098</v>
       </c>
       <c r="AE7" t="n">
-        <v>1945431.051837431</v>
+        <v>2052740.622401641</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478395360988749e-06</v>
+        <v>2.618348039287135e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.60833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1759761.842679697</v>
+        <v>1856829.938439186</v>
       </c>
     </row>
     <row r="8">
@@ -16842,28 +16842,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1369.349001346127</v>
+        <v>1437.96351221031</v>
       </c>
       <c r="AB8" t="n">
-        <v>1873.603715056086</v>
+        <v>1967.485115879043</v>
       </c>
       <c r="AC8" t="n">
-        <v>1694.789606110463</v>
+        <v>1779.711097802249</v>
       </c>
       <c r="AD8" t="n">
-        <v>1369349.001346127</v>
+        <v>1437963.51221031</v>
       </c>
       <c r="AE8" t="n">
-        <v>1873603.715056086</v>
+        <v>1967485.115879043</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.500319398209975e-06</v>
+        <v>2.657177138313164e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.39305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1694789.606110462</v>
+        <v>1779711.097802249</v>
       </c>
     </row>
     <row r="9">
@@ -16948,28 +16948,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1334.202855232504</v>
+        <v>1402.817366096688</v>
       </c>
       <c r="AB9" t="n">
-        <v>1825.515207404893</v>
+        <v>1919.39660822785</v>
       </c>
       <c r="AC9" t="n">
-        <v>1651.290598136855</v>
+        <v>1736.212089828643</v>
       </c>
       <c r="AD9" t="n">
-        <v>1334202.855232504</v>
+        <v>1402817.366096688</v>
       </c>
       <c r="AE9" t="n">
-        <v>1825515.207404893</v>
+        <v>1919396.60822785</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.510737203130699e-06</v>
+        <v>2.675627844942554e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.29444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1651290.598136855</v>
+        <v>1736212.089828643</v>
       </c>
     </row>
     <row r="10">
@@ -17054,28 +17054,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1287.109353465019</v>
+        <v>1355.723864329203</v>
       </c>
       <c r="AB10" t="n">
-        <v>1761.079800667952</v>
+        <v>1854.961201490909</v>
       </c>
       <c r="AC10" t="n">
-        <v>1593.004816183227</v>
+        <v>1677.926307875014</v>
       </c>
       <c r="AD10" t="n">
-        <v>1287109.353465019</v>
+        <v>1355723.864329203</v>
       </c>
       <c r="AE10" t="n">
-        <v>1761079.800667952</v>
+        <v>1854961.201490909</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.526130676073262e-06</v>
+        <v>2.702890829365085e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.15</v>
       </c>
       <c r="AH10" t="n">
-        <v>1593004.816183227</v>
+        <v>1677926.307875014</v>
       </c>
     </row>
     <row r="11">
@@ -17160,28 +17160,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1252.645367164874</v>
+        <v>1321.259878029059</v>
       </c>
       <c r="AB11" t="n">
-        <v>1713.924654168327</v>
+        <v>1807.806054991284</v>
       </c>
       <c r="AC11" t="n">
-        <v>1550.350090682861</v>
+        <v>1635.271582374649</v>
       </c>
       <c r="AD11" t="n">
-        <v>1252645.367164874</v>
+        <v>1321259.878029059</v>
       </c>
       <c r="AE11" t="n">
-        <v>1713924.654168327</v>
+        <v>1807806.054991284</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.535771032865574e-06</v>
+        <v>2.719964617589297e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1550350.090682861</v>
+        <v>1635271.582374649</v>
       </c>
     </row>
     <row r="12">
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1233.376455426513</v>
+        <v>1301.990966290697</v>
       </c>
       <c r="AB12" t="n">
-        <v>1687.56007904351</v>
+        <v>1781.441479866467</v>
       </c>
       <c r="AC12" t="n">
-        <v>1526.501713605044</v>
+        <v>1611.423205296831</v>
       </c>
       <c r="AD12" t="n">
-        <v>1233376.455426513</v>
+        <v>1301990.966290697</v>
       </c>
       <c r="AE12" t="n">
-        <v>1687560.07904351</v>
+        <v>1781441.479866467</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541679638641507e-06</v>
+        <v>2.730429197468652e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.00833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1526501.713605044</v>
+        <v>1611423.205296831</v>
       </c>
     </row>
     <row r="13">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1234.843718777528</v>
+        <v>1303.458229641712</v>
       </c>
       <c r="AB13" t="n">
-        <v>1689.567653491461</v>
+        <v>1783.449054314417</v>
       </c>
       <c r="AC13" t="n">
-        <v>1528.31768796533</v>
+        <v>1613.239179657118</v>
       </c>
       <c r="AD13" t="n">
-        <v>1234843.718777528</v>
+        <v>1303458.229641712</v>
       </c>
       <c r="AE13" t="n">
-        <v>1689567.653491461</v>
+        <v>1783449.054314417</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.541990617892872e-06</v>
+        <v>2.730979964830724e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.00416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1528317.68796533</v>
+        <v>1613239.179657117</v>
       </c>
     </row>
   </sheetData>
@@ -17669,28 +17669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5213.699100864853</v>
+        <v>5363.561384071643</v>
       </c>
       <c r="AB2" t="n">
-        <v>7133.613121974584</v>
+        <v>7338.661309315451</v>
       </c>
       <c r="AC2" t="n">
-        <v>6452.791097701958</v>
+        <v>6638.269773829946</v>
       </c>
       <c r="AD2" t="n">
-        <v>5213699.100864853</v>
+        <v>5363561.384071643</v>
       </c>
       <c r="AE2" t="n">
-        <v>7133613.121974584</v>
+        <v>7338661.309315451</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.22285921949092e-07</v>
+        <v>1.259603578447193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.29444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>6452791.097701958</v>
+        <v>6638269.773829945</v>
       </c>
     </row>
     <row r="3">
@@ -17775,28 +17775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2405.857225386293</v>
+        <v>2505.793801469978</v>
       </c>
       <c r="AB3" t="n">
-        <v>3291.799994703589</v>
+        <v>3428.537626991868</v>
       </c>
       <c r="AC3" t="n">
-        <v>2977.635223279263</v>
+        <v>3101.322807854415</v>
       </c>
       <c r="AD3" t="n">
-        <v>2405857.225386293</v>
+        <v>2505793.801469978</v>
       </c>
       <c r="AE3" t="n">
-        <v>3291799.994703589</v>
+        <v>3428537.626991868</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.128447969600701e-06</v>
+        <v>1.967914723804758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>2977635.223279263</v>
+        <v>3101322.807854415</v>
       </c>
     </row>
     <row r="4">
@@ -17881,28 +17881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1956.744705700134</v>
+        <v>2046.679090089993</v>
       </c>
       <c r="AB4" t="n">
-        <v>2677.304431822793</v>
+        <v>2800.356624170015</v>
       </c>
       <c r="AC4" t="n">
-        <v>2421.786254469995</v>
+        <v>2533.094518284436</v>
       </c>
       <c r="AD4" t="n">
-        <v>1956744.705700134</v>
+        <v>2046679.090089994</v>
       </c>
       <c r="AE4" t="n">
-        <v>2677304.431822793</v>
+        <v>2800356.624170016</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273636428494918e-06</v>
+        <v>2.22111071837556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.61388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2421786.254469994</v>
+        <v>2533094.518284436</v>
       </c>
     </row>
     <row r="5">
@@ -17987,28 +17987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1766.193605058101</v>
+        <v>1846.211138608706</v>
       </c>
       <c r="AB5" t="n">
-        <v>2416.584009403104</v>
+        <v>2526.067528931478</v>
       </c>
       <c r="AC5" t="n">
-        <v>2185.94862324263</v>
+        <v>2284.983189328301</v>
       </c>
       <c r="AD5" t="n">
-        <v>1766193.605058101</v>
+        <v>1846211.138608706</v>
       </c>
       <c r="AE5" t="n">
-        <v>2416584.009403103</v>
+        <v>2526067.528931478</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.348744414050899e-06</v>
+        <v>2.35209248681565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.68888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2185948.62324263</v>
+        <v>2284983.189328301</v>
       </c>
     </row>
     <row r="6">
@@ -18093,28 +18093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1665.000296962389</v>
+        <v>1744.847238312401</v>
       </c>
       <c r="AB6" t="n">
-        <v>2278.126860932874</v>
+        <v>2387.376968686402</v>
       </c>
       <c r="AC6" t="n">
-        <v>2060.705630696571</v>
+        <v>2159.529061499591</v>
       </c>
       <c r="AD6" t="n">
-        <v>1665000.296962389</v>
+        <v>1744847.238312402</v>
       </c>
       <c r="AE6" t="n">
-        <v>2278126.860932874</v>
+        <v>2387376.968686402</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.393230279735171e-06</v>
+        <v>2.429671952098624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2060705.630696571</v>
+        <v>2159529.061499591</v>
       </c>
     </row>
     <row r="7">
@@ -18199,28 +18199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1578.157599169569</v>
+        <v>1658.089791865603</v>
       </c>
       <c r="AB7" t="n">
-        <v>2159.304850583307</v>
+        <v>2268.671602989484</v>
       </c>
       <c r="AC7" t="n">
-        <v>1953.223826247027</v>
+        <v>2052.15276930076</v>
       </c>
       <c r="AD7" t="n">
-        <v>1578157.599169569</v>
+        <v>1658089.791865603</v>
       </c>
       <c r="AE7" t="n">
-        <v>2159304.850583307</v>
+        <v>2268671.602989484</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.427204074418708e-06</v>
+        <v>2.488919283461991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.825</v>
       </c>
       <c r="AH7" t="n">
-        <v>1953223.826247027</v>
+        <v>2052152.76930076</v>
       </c>
     </row>
     <row r="8">
@@ -18305,28 +18305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1524.994229379614</v>
+        <v>1604.926422075648</v>
       </c>
       <c r="AB8" t="n">
-        <v>2086.564382634346</v>
+        <v>2195.931135040522</v>
       </c>
       <c r="AC8" t="n">
-        <v>1887.425606467227</v>
+        <v>1986.354549520959</v>
       </c>
       <c r="AD8" t="n">
-        <v>1524994.229379614</v>
+        <v>1604926.422075648</v>
       </c>
       <c r="AE8" t="n">
-        <v>2086564.382634346</v>
+        <v>2195931.135040523</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.448837611840511e-06</v>
+        <v>2.526646283702341e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.60416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1887425.606467227</v>
+        <v>1986354.549520959</v>
       </c>
     </row>
     <row r="9">
@@ -18411,28 +18411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1475.85381314404</v>
+        <v>1545.783903654799</v>
       </c>
       <c r="AB9" t="n">
-        <v>2019.328297218674</v>
+        <v>2115.009732153352</v>
       </c>
       <c r="AC9" t="n">
-        <v>1826.606438677188</v>
+        <v>1913.156171751438</v>
       </c>
       <c r="AD9" t="n">
-        <v>1475853.813144041</v>
+        <v>1545783.903654799</v>
       </c>
       <c r="AE9" t="n">
-        <v>2019328.297218674</v>
+        <v>2115009.732153352</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.469100009566567e-06</v>
+        <v>2.561982136040135e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.40416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1826606.438677188</v>
+        <v>1913156.171751438</v>
       </c>
     </row>
     <row r="10">
@@ -18517,28 +18517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1452.967061229562</v>
+        <v>1522.897151740321</v>
       </c>
       <c r="AB10" t="n">
-        <v>1988.01363355705</v>
+        <v>2083.695068491728</v>
       </c>
       <c r="AC10" t="n">
-        <v>1798.280402565023</v>
+        <v>1884.830135639273</v>
       </c>
       <c r="AD10" t="n">
-        <v>1452967.061229562</v>
+        <v>1522897.151740321</v>
       </c>
       <c r="AE10" t="n">
-        <v>1988013.63355705</v>
+        <v>2083695.068491729</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.47412752178431e-06</v>
+        <v>2.570749678349512e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.35416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1798280.402565023</v>
+        <v>1884830.135639273</v>
       </c>
     </row>
     <row r="11">
@@ -18623,28 +18623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1407.738647171249</v>
+        <v>1477.668737682008</v>
       </c>
       <c r="AB11" t="n">
-        <v>1926.130122105662</v>
+        <v>2021.81155704034</v>
       </c>
       <c r="AC11" t="n">
-        <v>1742.302966592502</v>
+        <v>1828.852699666752</v>
       </c>
       <c r="AD11" t="n">
-        <v>1407738.647171249</v>
+        <v>1477668.737682008</v>
       </c>
       <c r="AE11" t="n">
-        <v>1926130.122105662</v>
+        <v>2021811.55704034</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.489819453857872e-06</v>
+        <v>2.59811503767878e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.20277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1742302.966592502</v>
+        <v>1828852.699666752</v>
       </c>
     </row>
     <row r="12">
@@ -18729,28 +18729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1374.546256051428</v>
+        <v>1444.476346562187</v>
       </c>
       <c r="AB12" t="n">
-        <v>1880.714828230575</v>
+        <v>1976.396263165253</v>
       </c>
       <c r="AC12" t="n">
-        <v>1701.222044624088</v>
+        <v>1787.771777698337</v>
       </c>
       <c r="AD12" t="n">
-        <v>1374546.256051428</v>
+        <v>1444476.346562187</v>
       </c>
       <c r="AE12" t="n">
-        <v>1880714.828230575</v>
+        <v>1976396.263165253</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.499112734017942e-06</v>
+        <v>2.614321706796114e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.11388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1701222.044624088</v>
+        <v>1787771.777698338</v>
       </c>
     </row>
     <row r="13">
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1341.88452093946</v>
+        <v>1411.814611450219</v>
       </c>
       <c r="AB13" t="n">
-        <v>1836.025601316324</v>
+        <v>1931.707036251002</v>
       </c>
       <c r="AC13" t="n">
-        <v>1660.797894804809</v>
+        <v>1747.347627879059</v>
       </c>
       <c r="AD13" t="n">
-        <v>1341884.52093946</v>
+        <v>1411814.611450219</v>
       </c>
       <c r="AE13" t="n">
-        <v>1836025.601316324</v>
+        <v>1931707.036251002</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.507187223337348e-06</v>
+        <v>2.628402911111174e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.03888888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1660797.894804809</v>
+        <v>1747347.627879059</v>
       </c>
     </row>
     <row r="14">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1305.433755064982</v>
+        <v>1385.280606906444</v>
       </c>
       <c r="AB14" t="n">
-        <v>1786.152055352566</v>
+        <v>1895.402040636545</v>
       </c>
       <c r="AC14" t="n">
-        <v>1615.684210069871</v>
+        <v>1714.507530091664</v>
       </c>
       <c r="AD14" t="n">
-        <v>1305433.755064982</v>
+        <v>1385280.606906444</v>
       </c>
       <c r="AE14" t="n">
-        <v>1786152.055352566</v>
+        <v>1895402.040636545</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.513585875250839e-06</v>
+        <v>2.639561601323109e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.97916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1615684.210069871</v>
+        <v>1714507.530091664</v>
       </c>
     </row>
     <row r="15">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1297.713732521378</v>
+        <v>1377.56058436284</v>
       </c>
       <c r="AB15" t="n">
-        <v>1775.58917992505</v>
+        <v>1884.839165209029</v>
       </c>
       <c r="AC15" t="n">
-        <v>1606.129440648068</v>
+        <v>1704.952760669861</v>
       </c>
       <c r="AD15" t="n">
-        <v>1297713.732521378</v>
+        <v>1377560.58436284</v>
       </c>
       <c r="AE15" t="n">
-        <v>1775589.17992505</v>
+        <v>1884839.165209029</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.515414061511837e-06</v>
+        <v>2.642749798526519e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.9625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1606129.440648068</v>
+        <v>1704952.760669861</v>
       </c>
     </row>
     <row r="16">
@@ -19153,28 +19153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1303.473553552136</v>
+        <v>1383.320405393597</v>
       </c>
       <c r="AB16" t="n">
-        <v>1783.470021164702</v>
+        <v>1892.720006448681</v>
       </c>
       <c r="AC16" t="n">
-        <v>1613.258145460638</v>
+        <v>1712.081465482431</v>
       </c>
       <c r="AD16" t="n">
-        <v>1303473.553552136</v>
+        <v>1383320.405393597</v>
       </c>
       <c r="AE16" t="n">
-        <v>1783470.021164702</v>
+        <v>1892720.006448681</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.515414061511837e-06</v>
+        <v>2.642749798526519e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.96388888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1613258.145460638</v>
+        <v>1712081.465482431</v>
       </c>
     </row>
   </sheetData>
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8535.340408726857</v>
+        <v>8731.666149025425</v>
       </c>
       <c r="AB2" t="n">
-        <v>11678.42929986383</v>
+        <v>11947.05083902073</v>
       </c>
       <c r="AC2" t="n">
-        <v>10563.85639826285</v>
+        <v>10806.8410747353</v>
       </c>
       <c r="AD2" t="n">
-        <v>8535340.408726858</v>
+        <v>8731666.149025425</v>
       </c>
       <c r="AE2" t="n">
-        <v>11678429.29986383</v>
+        <v>11947050.83902073</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.540867845858207e-07</v>
+        <v>9.419108109302919e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.86111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>10563856.39826285</v>
+        <v>10806841.0747353</v>
       </c>
     </row>
     <row r="3">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3078.41234019432</v>
+        <v>3181.701342086793</v>
       </c>
       <c r="AB3" t="n">
-        <v>4212.019573821572</v>
+        <v>4353.344143000023</v>
       </c>
       <c r="AC3" t="n">
-        <v>3810.030337302482</v>
+        <v>3937.867087948815</v>
       </c>
       <c r="AD3" t="n">
-        <v>3078412.34019432</v>
+        <v>3181701.342086793</v>
       </c>
       <c r="AE3" t="n">
-        <v>4212019.573821572</v>
+        <v>4353344.143000023</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.000091354025522e-06</v>
+        <v>1.70008901941001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.42361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3810030.337302482</v>
+        <v>3937867.087948815</v>
       </c>
     </row>
     <row r="4">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2398.914572890148</v>
+        <v>2491.951400804792</v>
       </c>
       <c r="AB4" t="n">
-        <v>3282.30075127015</v>
+        <v>3409.597843718141</v>
       </c>
       <c r="AC4" t="n">
-        <v>2969.042574306841</v>
+        <v>3084.190610914182</v>
       </c>
       <c r="AD4" t="n">
-        <v>2398914.572890148</v>
+        <v>2491951.400804792</v>
       </c>
       <c r="AE4" t="n">
-        <v>3282300.75127015</v>
+        <v>3409597.843718141</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.162288202061127e-06</v>
+        <v>1.975812911250803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.57222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2969042.574306841</v>
+        <v>3084190.610914182</v>
       </c>
     </row>
     <row r="5">
@@ -19768,28 +19768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2135.401492898878</v>
+        <v>2218.015644143654</v>
       </c>
       <c r="AB5" t="n">
-        <v>2921.750529849296</v>
+        <v>3034.786856261698</v>
       </c>
       <c r="AC5" t="n">
-        <v>2642.902759983102</v>
+        <v>2745.151058050071</v>
       </c>
       <c r="AD5" t="n">
-        <v>2135401.492898878</v>
+        <v>2218015.644143654</v>
       </c>
       <c r="AE5" t="n">
-        <v>2921750.529849296</v>
+        <v>3034786.856261698</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.246842315950949e-06</v>
+        <v>2.119549300923021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.38055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2642902.759983102</v>
+        <v>2745151.058050071</v>
       </c>
     </row>
     <row r="6">
@@ -19874,28 +19874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1980.098275020314</v>
+        <v>2062.797677611109</v>
       </c>
       <c r="AB6" t="n">
-        <v>2709.257815653426</v>
+        <v>2822.410786718301</v>
       </c>
       <c r="AC6" t="n">
-        <v>2450.690052194689</v>
+        <v>2553.043862512323</v>
       </c>
       <c r="AD6" t="n">
-        <v>1980098.275020314</v>
+        <v>2062797.677611109</v>
       </c>
       <c r="AE6" t="n">
-        <v>2709257.815653426</v>
+        <v>2822410.786718301</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301251050106138e-06</v>
+        <v>2.212040542972971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.69583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2450690.052194688</v>
+        <v>2553043.862512323</v>
       </c>
     </row>
     <row r="7">
@@ -19980,28 +19980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1891.316518326787</v>
+        <v>1973.84532871699</v>
       </c>
       <c r="AB7" t="n">
-        <v>2587.78269937067</v>
+        <v>2700.702258660697</v>
       </c>
       <c r="AC7" t="n">
-        <v>2340.808350518563</v>
+        <v>2442.951025553546</v>
       </c>
       <c r="AD7" t="n">
-        <v>1891316.518326788</v>
+        <v>1973845.32871699</v>
       </c>
       <c r="AE7" t="n">
-        <v>2587782.69937067</v>
+        <v>2700702.258660697</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.336543201990585e-06</v>
+        <v>2.272034862140505e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.28055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2340808.350518563</v>
+        <v>2442951.025553546</v>
       </c>
     </row>
     <row r="8">
@@ -20086,28 +20086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1815.53735018352</v>
+        <v>1898.151411919744</v>
       </c>
       <c r="AB8" t="n">
-        <v>2484.0982983761</v>
+        <v>2597.134502318777</v>
       </c>
       <c r="AC8" t="n">
-        <v>2247.019443232944</v>
+        <v>2349.26763051864</v>
       </c>
       <c r="AD8" t="n">
-        <v>1815537.35018352</v>
+        <v>1898151.411919744</v>
       </c>
       <c r="AE8" t="n">
-        <v>2484098.2983761</v>
+        <v>2597134.502318777</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.362571164005365e-06</v>
+        <v>2.316280672526562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.98888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2247019.443232944</v>
+        <v>2349267.630518639</v>
       </c>
     </row>
     <row r="9">
@@ -20192,28 +20192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1762.827222944169</v>
+        <v>1845.441284680392</v>
       </c>
       <c r="AB9" t="n">
-        <v>2411.977976880524</v>
+        <v>2525.014180823201</v>
       </c>
       <c r="AC9" t="n">
-        <v>2181.782183999399</v>
+        <v>2284.030371285095</v>
       </c>
       <c r="AD9" t="n">
-        <v>1762827.222944169</v>
+        <v>1845441.284680392</v>
       </c>
       <c r="AE9" t="n">
-        <v>2411977.976880524</v>
+        <v>2525014.180823201</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.383305303237478e-06</v>
+        <v>2.351527335037488e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.76388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2181782.183999399</v>
+        <v>2284030.371285094</v>
       </c>
     </row>
     <row r="10">
@@ -20298,28 +20298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1719.693618916932</v>
+        <v>1802.307680653155</v>
       </c>
       <c r="AB10" t="n">
-        <v>2352.960676930151</v>
+        <v>2465.996880872828</v>
       </c>
       <c r="AC10" t="n">
-        <v>2128.397412324989</v>
+        <v>2230.645599610684</v>
       </c>
       <c r="AD10" t="n">
-        <v>1719693.618916932</v>
+        <v>1802307.680653155</v>
       </c>
       <c r="AE10" t="n">
-        <v>2352960.676930151</v>
+        <v>2465996.880872827</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.399039720952627e-06</v>
+        <v>2.378274802333014e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.59861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>2128397.412324989</v>
+        <v>2230645.599610684</v>
       </c>
     </row>
     <row r="11">
@@ -20404,28 +20404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1662.205875464024</v>
+        <v>1734.482601384949</v>
       </c>
       <c r="AB11" t="n">
-        <v>2274.303410157636</v>
+        <v>2373.195615186752</v>
       </c>
       <c r="AC11" t="n">
-        <v>2057.247084697075</v>
+        <v>2146.701156474293</v>
       </c>
       <c r="AD11" t="n">
-        <v>1662205.875464024</v>
+        <v>1734482.601384949</v>
       </c>
       <c r="AE11" t="n">
-        <v>2274303.410157636</v>
+        <v>2373195.615186752</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.421538467778962e-06</v>
+        <v>2.416521180802317e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.36666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2057247.084697075</v>
+        <v>2146701.156474293</v>
       </c>
     </row>
     <row r="12">
@@ -20510,28 +20510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1660.553451415768</v>
+        <v>1732.830177336693</v>
       </c>
       <c r="AB12" t="n">
-        <v>2272.042490675009</v>
+        <v>2370.934695704124</v>
       </c>
       <c r="AC12" t="n">
-        <v>2055.201944196649</v>
+        <v>2144.656015973867</v>
       </c>
       <c r="AD12" t="n">
-        <v>1660553.451415768</v>
+        <v>1732830.177336693</v>
       </c>
       <c r="AE12" t="n">
-        <v>2272042.490675008</v>
+        <v>2370934.695704124</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.418744505754777e-06</v>
+        <v>2.411771630534887e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.39583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2055201.944196648</v>
+        <v>2144656.015973867</v>
       </c>
     </row>
     <row r="13">
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1627.175676427218</v>
+        <v>1699.452402348143</v>
       </c>
       <c r="AB13" t="n">
-        <v>2226.373546412167</v>
+        <v>2325.265751441282</v>
       </c>
       <c r="AC13" t="n">
-        <v>2013.891579877487</v>
+        <v>2103.345651654704</v>
       </c>
       <c r="AD13" t="n">
-        <v>1627175.676427218</v>
+        <v>1699452.402348143</v>
       </c>
       <c r="AE13" t="n">
-        <v>2226373.546412167</v>
+        <v>2325265.751441282</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.429038050054407e-06</v>
+        <v>2.429269973625418e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2013891.579877487</v>
+        <v>2103345.651654704</v>
       </c>
     </row>
     <row r="14">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1604.333366637892</v>
+        <v>1676.610092558817</v>
       </c>
       <c r="AB14" t="n">
-        <v>2195.119690426825</v>
+        <v>2294.011895455941</v>
       </c>
       <c r="AC14" t="n">
-        <v>1985.620548042324</v>
+        <v>2075.074619819542</v>
       </c>
       <c r="AD14" t="n">
-        <v>1604333.366637892</v>
+        <v>1676610.092558817</v>
       </c>
       <c r="AE14" t="n">
-        <v>2195119.690426825</v>
+        <v>2294011.895455941</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.436096480431297e-06</v>
+        <v>2.441268837458926e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1985620.548042324</v>
+        <v>2075074.619819542</v>
       </c>
     </row>
     <row r="15">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1578.525682130561</v>
+        <v>1650.802408051486</v>
       </c>
       <c r="AB15" t="n">
-        <v>2159.80847792921</v>
+        <v>2258.700682958326</v>
       </c>
       <c r="AC15" t="n">
-        <v>1953.679388105883</v>
+        <v>2043.133459883101</v>
       </c>
       <c r="AD15" t="n">
-        <v>1578525.682130561</v>
+        <v>1650802.408051486</v>
       </c>
       <c r="AE15" t="n">
-        <v>2159808.47792921</v>
+        <v>2258700.682958326</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.44344901207389e-06</v>
+        <v>2.453767653952162e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.15</v>
       </c>
       <c r="AH15" t="n">
-        <v>1953679.388105883</v>
+        <v>2043133.459883101</v>
       </c>
     </row>
     <row r="16">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1552.712277242104</v>
+        <v>1624.989003163029</v>
       </c>
       <c r="AB16" t="n">
-        <v>2124.489438553773</v>
+        <v>2223.381643582889</v>
       </c>
       <c r="AC16" t="n">
-        <v>1921.731148277855</v>
+        <v>2011.185220055072</v>
       </c>
       <c r="AD16" t="n">
-        <v>1552712.277242104</v>
+        <v>1624989.003163029</v>
       </c>
       <c r="AE16" t="n">
-        <v>2124489.438553773</v>
+        <v>2223381.643582889</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.44977218928652e-06</v>
+        <v>2.464516636136345e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.0875</v>
       </c>
       <c r="AH16" t="n">
-        <v>1921731.148277855</v>
+        <v>2011185.220055073</v>
       </c>
     </row>
     <row r="17">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1528.699966200546</v>
+        <v>1600.976692121471</v>
       </c>
       <c r="AB17" t="n">
-        <v>2091.634735238315</v>
+        <v>2190.52694026743</v>
       </c>
       <c r="AC17" t="n">
-        <v>1892.012051734958</v>
+        <v>1981.466123512176</v>
       </c>
       <c r="AD17" t="n">
-        <v>1528699.966200546</v>
+        <v>1600976.692121471</v>
       </c>
       <c r="AE17" t="n">
-        <v>2091634.735238315</v>
+        <v>2190526.94026743</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.454477809537779e-06</v>
+        <v>2.472515878692016e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.04166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1892012.051734958</v>
+        <v>1981466.123512176</v>
       </c>
     </row>
     <row r="18">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1496.969934389999</v>
+        <v>1579.49865527165</v>
       </c>
       <c r="AB18" t="n">
-        <v>2048.220305884916</v>
+        <v>2161.139742705394</v>
       </c>
       <c r="AC18" t="n">
-        <v>1852.741034586513</v>
+        <v>1954.88359884027</v>
       </c>
       <c r="AD18" t="n">
-        <v>1496969.934389999</v>
+        <v>1579498.655271651</v>
       </c>
       <c r="AE18" t="n">
-        <v>2048220.305884916</v>
+        <v>2161139.742705394</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.459330480421891e-06</v>
+        <v>2.480765097577552e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.99444444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>1852741.034586513</v>
+        <v>1954883.59884027</v>
       </c>
     </row>
     <row r="19">
@@ -21252,28 +21252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1480.573970127878</v>
+        <v>1563.102691009529</v>
       </c>
       <c r="AB19" t="n">
-        <v>2025.786624242589</v>
+        <v>2138.706061063067</v>
       </c>
       <c r="AC19" t="n">
-        <v>1832.44839203426</v>
+        <v>1934.590956288017</v>
       </c>
       <c r="AD19" t="n">
-        <v>1480573.970127878</v>
+        <v>1563102.691009529</v>
       </c>
       <c r="AE19" t="n">
-        <v>2025786.624242589</v>
+        <v>2138706.061063067</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.461095088016113e-06</v>
+        <v>2.483764813535929e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.97777777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>1832448.39203426</v>
+        <v>1934590.956288017</v>
       </c>
     </row>
     <row r="20">
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1464.195560848524</v>
+        <v>1546.724281730175</v>
       </c>
       <c r="AB20" t="n">
-        <v>2003.376962102155</v>
+        <v>2116.296398922634</v>
       </c>
       <c r="AC20" t="n">
-        <v>1812.177476596351</v>
+        <v>1914.320040850108</v>
       </c>
       <c r="AD20" t="n">
-        <v>1464195.560848524</v>
+        <v>1546724.281730175</v>
       </c>
       <c r="AE20" t="n">
-        <v>2003376.962102155</v>
+        <v>2116296.398922634</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.464330201938854e-06</v>
+        <v>2.489264292792953e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.94722222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>1812177.476596351</v>
+        <v>1914320.040850108</v>
       </c>
     </row>
     <row r="21">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1452.969971558254</v>
+        <v>1535.498692439906</v>
       </c>
       <c r="AB21" t="n">
-        <v>1988.017615597162</v>
+        <v>2100.93705241764</v>
       </c>
       <c r="AC21" t="n">
-        <v>1798.284004564815</v>
+        <v>1900.426568818572</v>
       </c>
       <c r="AD21" t="n">
-        <v>1452969.971558254</v>
+        <v>1535498.692439906</v>
       </c>
       <c r="AE21" t="n">
-        <v>1988017.615597162</v>
+        <v>2100937.05241764</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.466977113330188e-06</v>
+        <v>2.493763866730518e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.92222222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>1798284.004564815</v>
+        <v>1900426.568818572</v>
       </c>
     </row>
     <row r="22">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1457.762194293714</v>
+        <v>1540.290915175365</v>
       </c>
       <c r="AB22" t="n">
-        <v>1994.574546161763</v>
+        <v>2107.493982982242</v>
       </c>
       <c r="AC22" t="n">
-        <v>1804.215150879041</v>
+        <v>1906.357715132798</v>
       </c>
       <c r="AD22" t="n">
-        <v>1457762.194293714</v>
+        <v>1540290.915175365</v>
       </c>
       <c r="AE22" t="n">
-        <v>1994574.546161763</v>
+        <v>2107493.982982242</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.46712416396304e-06</v>
+        <v>2.494013843060383e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.92083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1804215.150879041</v>
+        <v>1906357.715132798</v>
       </c>
     </row>
     <row r="23">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1463.365116150472</v>
+        <v>1545.893837032123</v>
       </c>
       <c r="AB23" t="n">
-        <v>2002.240711029646</v>
+        <v>2115.160147850125</v>
       </c>
       <c r="AC23" t="n">
-        <v>1811.149667731464</v>
+        <v>1913.292231985221</v>
       </c>
       <c r="AD23" t="n">
-        <v>1463365.116150472</v>
+        <v>1545893.837032123</v>
       </c>
       <c r="AE23" t="n">
-        <v>2002240.711029646</v>
+        <v>2115160.147850125</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.466977113330188e-06</v>
+        <v>2.493763866730518e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.92222222222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>1811149.667731464</v>
+        <v>1913292.231985221</v>
       </c>
     </row>
   </sheetData>
@@ -21973,28 +21973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3237.795898669516</v>
+        <v>3362.531119655375</v>
       </c>
       <c r="AB2" t="n">
-        <v>4430.09519003369</v>
+        <v>4600.763422316124</v>
       </c>
       <c r="AC2" t="n">
-        <v>4007.293122774357</v>
+        <v>4161.673018502118</v>
       </c>
       <c r="AD2" t="n">
-        <v>3237795.898669516</v>
+        <v>3362531.119655375</v>
       </c>
       <c r="AE2" t="n">
-        <v>4430095.190033689</v>
+        <v>4600763.422316124</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.228595731488445e-07</v>
+        <v>1.664134195823662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.94305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>4007293.122774357</v>
+        <v>4161673.018502118</v>
       </c>
     </row>
     <row r="3">
@@ -22079,28 +22079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1825.908153330593</v>
+        <v>1912.210878380386</v>
       </c>
       <c r="AB3" t="n">
-        <v>2498.28808876947</v>
+        <v>2616.371284590113</v>
       </c>
       <c r="AC3" t="n">
-        <v>2259.854979946665</v>
+        <v>2366.668481288993</v>
       </c>
       <c r="AD3" t="n">
-        <v>1825908.153330592</v>
+        <v>1912210.878380386</v>
       </c>
       <c r="AE3" t="n">
-        <v>2498288.088769469</v>
+        <v>2616371.284590113</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.280485554951741e-06</v>
+        <v>2.309018469606043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.25694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2259854.979946665</v>
+        <v>2366668.481288993</v>
       </c>
     </row>
     <row r="4">
@@ -22185,28 +22185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1537.492049422206</v>
+        <v>1614.357220311439</v>
       </c>
       <c r="AB4" t="n">
-        <v>2103.664451381527</v>
+        <v>2208.834769244186</v>
       </c>
       <c r="AC4" t="n">
-        <v>1902.893668653275</v>
+        <v>1998.026678986589</v>
       </c>
       <c r="AD4" t="n">
-        <v>1537492.049422206</v>
+        <v>1614357.220311439</v>
       </c>
       <c r="AE4" t="n">
-        <v>2103664.451381527</v>
+        <v>2208834.769244186</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404572861805059e-06</v>
+        <v>2.532777247875731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.73055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1902893.668653275</v>
+        <v>1998026.678986589</v>
       </c>
     </row>
     <row r="5">
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1412.014487208119</v>
+        <v>1479.271601244748</v>
       </c>
       <c r="AB5" t="n">
-        <v>1931.980515080857</v>
+        <v>2024.004665680231</v>
       </c>
       <c r="AC5" t="n">
-        <v>1747.595006273222</v>
+        <v>1830.836501096099</v>
       </c>
       <c r="AD5" t="n">
-        <v>1412014.487208119</v>
+        <v>1479271.601244748</v>
       </c>
       <c r="AE5" t="n">
-        <v>1931980.515080857</v>
+        <v>2024004.665680232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.468366464430932e-06</v>
+        <v>2.647812209524634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.04722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1747595.006273222</v>
+        <v>1830836.501096099</v>
       </c>
     </row>
     <row r="6">
@@ -22397,28 +22397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319.332367513381</v>
+        <v>1396.112197548041</v>
       </c>
       <c r="AB6" t="n">
-        <v>1805.168750067971</v>
+        <v>1910.222300808432</v>
       </c>
       <c r="AC6" t="n">
-        <v>1632.885978131737</v>
+        <v>1727.913365433112</v>
       </c>
       <c r="AD6" t="n">
-        <v>1319332.367513381</v>
+        <v>1396112.197548041</v>
       </c>
       <c r="AE6" t="n">
-        <v>1805168.750067971</v>
+        <v>1910222.300808432</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.508615296012841e-06</v>
+        <v>2.720390377348007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.64583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1632885.978131737</v>
+        <v>1727913.365433112</v>
       </c>
     </row>
     <row r="7">
@@ -22503,28 +22503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1258.591970330519</v>
+        <v>1325.763743512576</v>
       </c>
       <c r="AB7" t="n">
-        <v>1722.061058965178</v>
+        <v>1813.968442442355</v>
       </c>
       <c r="AC7" t="n">
-        <v>1557.709968425417</v>
+        <v>1640.845840216354</v>
       </c>
       <c r="AD7" t="n">
-        <v>1258591.970330519</v>
+        <v>1325763.743512576</v>
       </c>
       <c r="AE7" t="n">
-        <v>1722061.058965178</v>
+        <v>1813968.442442355</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535659965455231e-06</v>
+        <v>2.769158316201657e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1557709.968425417</v>
+        <v>1640845.840216354</v>
       </c>
     </row>
     <row r="8">
@@ -22609,28 +22609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1230.261695252132</v>
+        <v>1297.433468434189</v>
       </c>
       <c r="AB8" t="n">
-        <v>1683.298326759402</v>
+        <v>1775.205710236578</v>
       </c>
       <c r="AC8" t="n">
-        <v>1522.646696977523</v>
+        <v>1605.782568768461</v>
       </c>
       <c r="AD8" t="n">
-        <v>1230261.695252132</v>
+        <v>1297433.468434189</v>
       </c>
       <c r="AE8" t="n">
-        <v>1683298.326759401</v>
+        <v>1775205.710236578</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.539955295307846e-06</v>
+        <v>2.77690381237253e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.34861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1522646.696977523</v>
+        <v>1605782.568768461</v>
       </c>
     </row>
     <row r="9">
@@ -22715,28 +22715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1165.737889908153</v>
+        <v>1232.90966309021</v>
       </c>
       <c r="AB9" t="n">
-        <v>1595.014009698381</v>
+        <v>1686.921393175557</v>
       </c>
       <c r="AC9" t="n">
-        <v>1442.788111228989</v>
+        <v>1525.923983019926</v>
       </c>
       <c r="AD9" t="n">
-        <v>1165737.889908153</v>
+        <v>1232909.66309021</v>
       </c>
       <c r="AE9" t="n">
-        <v>1595014.00969838</v>
+        <v>1686921.393175557</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.565727274423535e-06</v>
+        <v>2.823376789397773e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1442788.111228989</v>
+        <v>1525923.983019927</v>
       </c>
     </row>
     <row r="10">
@@ -22821,28 +22821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1153.697842118564</v>
+        <v>1220.869615300622</v>
       </c>
       <c r="AB10" t="n">
-        <v>1578.540285143245</v>
+        <v>1670.447668620422</v>
       </c>
       <c r="AC10" t="n">
-        <v>1427.886615824378</v>
+        <v>1511.022487615316</v>
       </c>
       <c r="AD10" t="n">
-        <v>1153697.842118565</v>
+        <v>1220869.615300622</v>
       </c>
       <c r="AE10" t="n">
-        <v>1578540.285143245</v>
+        <v>1670447.668620422</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.571931639766201e-06</v>
+        <v>2.834564728311257e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.05694444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1427886.615824378</v>
+        <v>1511022.487615316</v>
       </c>
     </row>
     <row r="11">
@@ -22927,28 +22927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1160.082672561258</v>
+        <v>1227.254445743316</v>
       </c>
       <c r="AB11" t="n">
-        <v>1587.276291833778</v>
+        <v>1679.183675310955</v>
       </c>
       <c r="AC11" t="n">
-        <v>1435.788870297429</v>
+        <v>1518.924742088367</v>
       </c>
       <c r="AD11" t="n">
-        <v>1160082.672561258</v>
+        <v>1227254.445743316</v>
       </c>
       <c r="AE11" t="n">
-        <v>1587276.291833778</v>
+        <v>1679183.675310955</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571772553475364e-06</v>
+        <v>2.834277858082707e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.05833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1435788.870297429</v>
+        <v>1518924.742088367</v>
       </c>
     </row>
   </sheetData>
@@ -23224,28 +23224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2207.53765991534</v>
+        <v>2309.221244555007</v>
       </c>
       <c r="AB2" t="n">
-        <v>3020.450415984477</v>
+        <v>3159.578382451627</v>
       </c>
       <c r="AC2" t="n">
-        <v>2732.182867511588</v>
+        <v>2858.032656126436</v>
       </c>
       <c r="AD2" t="n">
-        <v>2207537.65991534</v>
+        <v>2309221.244555007</v>
       </c>
       <c r="AE2" t="n">
-        <v>3020450.415984477</v>
+        <v>3159578.382451627</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.109463129880687e-06</v>
+        <v>2.069903568524938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.74444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2732182.867511588</v>
+        <v>2858032.656126436</v>
       </c>
     </row>
     <row r="3">
@@ -23330,28 +23330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1416.390656353532</v>
+        <v>1490.319169003321</v>
       </c>
       <c r="AB3" t="n">
-        <v>1937.968182768567</v>
+        <v>2039.120435271803</v>
       </c>
       <c r="AC3" t="n">
-        <v>1753.011219360562</v>
+        <v>1844.509642852967</v>
       </c>
       <c r="AD3" t="n">
-        <v>1416390.656353532</v>
+        <v>1490319.169003321</v>
       </c>
       <c r="AE3" t="n">
-        <v>1937968.182768567</v>
+        <v>2039120.435271803</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.419184801239462e-06</v>
+        <v>2.647745206997397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.21666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1753011.219360562</v>
+        <v>1844509.642852967</v>
       </c>
     </row>
     <row r="4">
@@ -23436,28 +23436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1221.352278836868</v>
+        <v>1286.114411841753</v>
       </c>
       <c r="AB4" t="n">
-        <v>1671.108070164326</v>
+        <v>1759.718477645274</v>
       </c>
       <c r="AC4" t="n">
-        <v>1511.619861362749</v>
+        <v>1591.773415919203</v>
       </c>
       <c r="AD4" t="n">
-        <v>1221352.278836868</v>
+        <v>1286114.411841753</v>
       </c>
       <c r="AE4" t="n">
-        <v>1671108.070164326</v>
+        <v>1759718.477645274</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.526236807498301e-06</v>
+        <v>2.847470032280012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.08055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1511619.861362749</v>
+        <v>1591773.415919203</v>
       </c>
     </row>
     <row r="5">
@@ -23542,28 +23542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1111.085844344675</v>
+        <v>1185.014267485913</v>
       </c>
       <c r="AB5" t="n">
-        <v>1520.236669880345</v>
+        <v>1621.388799914032</v>
       </c>
       <c r="AC5" t="n">
-        <v>1375.147415772531</v>
+        <v>1466.645728483709</v>
       </c>
       <c r="AD5" t="n">
-        <v>1111085.844344675</v>
+        <v>1185014.267485913</v>
       </c>
       <c r="AE5" t="n">
-        <v>1520236.669880345</v>
+        <v>1621388.799914032</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.581419962427392e-06</v>
+        <v>2.950424160482971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.55416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1375147.415772531</v>
+        <v>1466645.728483709</v>
       </c>
     </row>
     <row r="6">
@@ -23648,28 +23648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1043.159399871677</v>
+        <v>1107.836192021991</v>
       </c>
       <c r="AB6" t="n">
-        <v>1427.296711849156</v>
+        <v>1515.790352207906</v>
       </c>
       <c r="AC6" t="n">
-        <v>1291.077516893789</v>
+        <v>1371.125448418304</v>
       </c>
       <c r="AD6" t="n">
-        <v>1043159.399871677</v>
+        <v>1107836.192021991</v>
       </c>
       <c r="AE6" t="n">
-        <v>1427296.711849156</v>
+        <v>1515790.352207906</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.613568707341037e-06</v>
+        <v>3.010403442378988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.26388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1291077.516893789</v>
+        <v>1371125.448418304</v>
       </c>
     </row>
     <row r="7">
@@ -23754,28 +23754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1029.212094008535</v>
+        <v>1093.888886158849</v>
       </c>
       <c r="AB7" t="n">
-        <v>1408.213392655498</v>
+        <v>1496.707033014247</v>
       </c>
       <c r="AC7" t="n">
-        <v>1273.815482900366</v>
+        <v>1353.863414424881</v>
       </c>
       <c r="AD7" t="n">
-        <v>1029212.094008535</v>
+        <v>1093888.886158849</v>
       </c>
       <c r="AE7" t="n">
-        <v>1408213.392655497</v>
+        <v>1496707.033014247</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.619865884179793e-06</v>
+        <v>3.02215196151326e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.20833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1273815.482900366</v>
+        <v>1353863.414424881</v>
       </c>
     </row>
     <row r="8">
@@ -23860,28 +23860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1036.046637656281</v>
+        <v>1100.723429806595</v>
       </c>
       <c r="AB8" t="n">
-        <v>1417.564716793129</v>
+        <v>1506.058357151878</v>
       </c>
       <c r="AC8" t="n">
-        <v>1282.274329786968</v>
+        <v>1362.322261311482</v>
       </c>
       <c r="AD8" t="n">
-        <v>1036046.637656281</v>
+        <v>1100723.429806595</v>
       </c>
       <c r="AE8" t="n">
-        <v>1417564.716793129</v>
+        <v>1506058.357151878</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.62003159935976e-06</v>
+        <v>3.022461133069425e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.20694444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1282274.329786968</v>
+        <v>1362322.261311482</v>
       </c>
     </row>
   </sheetData>
@@ -44738,28 +44738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1639.998138139079</v>
+        <v>1729.581023749435</v>
       </c>
       <c r="AB2" t="n">
-        <v>2243.917804213422</v>
+        <v>2366.489060423497</v>
       </c>
       <c r="AC2" t="n">
-        <v>2029.761438337711</v>
+        <v>2140.634665884934</v>
       </c>
       <c r="AD2" t="n">
-        <v>1639998.138139079</v>
+        <v>1729581.023749435</v>
       </c>
       <c r="AE2" t="n">
-        <v>2243917.804213422</v>
+        <v>2366489.060423497</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.263400215838839e-06</v>
+        <v>2.42956546649613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.84583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2029761.438337711</v>
+        <v>2140634.665884934</v>
       </c>
     </row>
     <row r="3">
@@ -44844,28 +44844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1132.52306169966</v>
+        <v>1204.257642871601</v>
       </c>
       <c r="AB3" t="n">
-        <v>1549.568016408718</v>
+        <v>1647.718435074535</v>
       </c>
       <c r="AC3" t="n">
-        <v>1401.679419755039</v>
+        <v>1490.462500218369</v>
       </c>
       <c r="AD3" t="n">
-        <v>1132523.06169966</v>
+        <v>1204257.642871601</v>
       </c>
       <c r="AE3" t="n">
-        <v>1549568.016408718</v>
+        <v>1647718.435074535</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.534251279750014e-06</v>
+        <v>2.950422106531936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.51805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1401679.419755039</v>
+        <v>1490462.500218369</v>
       </c>
     </row>
     <row r="4">
@@ -44950,28 +44950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>979.4231821230708</v>
+        <v>1051.072422440441</v>
       </c>
       <c r="AB4" t="n">
-        <v>1340.090006882036</v>
+        <v>1438.123658425656</v>
       </c>
       <c r="AC4" t="n">
-        <v>1212.193697453351</v>
+        <v>1300.871154884743</v>
       </c>
       <c r="AD4" t="n">
-        <v>979423.1821230708</v>
+        <v>1051072.422440441</v>
       </c>
       <c r="AE4" t="n">
-        <v>1340090.006882036</v>
+        <v>1438123.658425656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62647778125901e-06</v>
+        <v>3.12777708902514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.6375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1212193.697453351</v>
+        <v>1300871.154884743</v>
       </c>
     </row>
     <row r="5">
@@ -45056,28 +45056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.4954954993418</v>
+        <v>999.1780026787702</v>
       </c>
       <c r="AB5" t="n">
-        <v>1281.354452207577</v>
+        <v>1367.119423887518</v>
       </c>
       <c r="AC5" t="n">
-        <v>1159.063781681153</v>
+        <v>1236.643464835855</v>
       </c>
       <c r="AD5" t="n">
-        <v>936495.4954993419</v>
+        <v>999178.0026787702</v>
       </c>
       <c r="AE5" t="n">
-        <v>1281354.452207576</v>
+        <v>1367119.423887518</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.651505790962194e-06</v>
+        <v>3.175906879813259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.41666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1159063.781681153</v>
+        <v>1236643.464835855</v>
       </c>
     </row>
     <row r="6">
@@ -45162,28 +45162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>943.774060565413</v>
+        <v>1006.456567744842</v>
       </c>
       <c r="AB6" t="n">
-        <v>1291.313306038603</v>
+        <v>1377.078277718545</v>
       </c>
       <c r="AC6" t="n">
-        <v>1168.072176479886</v>
+        <v>1245.651859634587</v>
       </c>
       <c r="AD6" t="n">
-        <v>943774.0605654131</v>
+        <v>1006456.567744842</v>
       </c>
       <c r="AE6" t="n">
-        <v>1291313.306038603</v>
+        <v>1377078.277718545</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.6513343662382e-06</v>
+        <v>3.17557722371197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.41805555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>1168072.176479886</v>
+        <v>1245651.859634588</v>
       </c>
     </row>
   </sheetData>
@@ -45459,28 +45459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>844.9154154316224</v>
+        <v>920.3633344734029</v>
       </c>
       <c r="AB2" t="n">
-        <v>1156.050546430935</v>
+        <v>1259.281717791172</v>
       </c>
       <c r="AC2" t="n">
-        <v>1045.718704806698</v>
+        <v>1139.097638058173</v>
       </c>
       <c r="AD2" t="n">
-        <v>844915.4154316224</v>
+        <v>920363.3344734029</v>
       </c>
       <c r="AE2" t="n">
-        <v>1156050.546430935</v>
+        <v>1259281.717791172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599065974374175e-06</v>
+        <v>3.298232393558426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1045718.704806698</v>
+        <v>1139097.638058173</v>
       </c>
     </row>
     <row r="3">
@@ -45565,28 +45565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.5156542751535</v>
+        <v>838.5615960753823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1055.621755047731</v>
+        <v>1147.356970477001</v>
       </c>
       <c r="AC3" t="n">
-        <v>954.8746963204129</v>
+        <v>1037.854831540297</v>
       </c>
       <c r="AD3" t="n">
-        <v>771515.6542751534</v>
+        <v>838561.5960753823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1055621.755047731</v>
+        <v>1147356.970477001</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.673950320429899e-06</v>
+        <v>3.452688794913654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.26527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>954874.6963204129</v>
+        <v>1037854.831540297</v>
       </c>
     </row>
   </sheetData>
@@ -45862,28 +45862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4629.349104353343</v>
+        <v>4777.831812197011</v>
       </c>
       <c r="AB2" t="n">
-        <v>6334.079677045085</v>
+        <v>6537.240268511555</v>
       </c>
       <c r="AC2" t="n">
-        <v>5729.564002604326</v>
+        <v>5913.335232358907</v>
       </c>
       <c r="AD2" t="n">
-        <v>4629349.104353343</v>
+        <v>4777831.812197011</v>
       </c>
       <c r="AE2" t="n">
-        <v>6334079.677045085</v>
+        <v>6537240.268511555</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.685793257268632e-07</v>
+        <v>1.350363556557229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.80694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>5729564.002604325</v>
+        <v>5913335.232358907</v>
       </c>
     </row>
     <row r="3">
@@ -45968,28 +45968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2256.890919191672</v>
+        <v>2345.997701577338</v>
       </c>
       <c r="AB3" t="n">
-        <v>3087.977722638491</v>
+        <v>3209.897553412361</v>
       </c>
       <c r="AC3" t="n">
-        <v>2793.265462793711</v>
+        <v>2903.549436034075</v>
       </c>
       <c r="AD3" t="n">
-        <v>2256890.919191672</v>
+        <v>2345997.701577338</v>
       </c>
       <c r="AE3" t="n">
-        <v>3087977.722638491</v>
+        <v>3209897.553412361</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.163870674634233e-06</v>
+        <v>2.044874863222998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2793265.462793711</v>
+        <v>2903549.436034075</v>
       </c>
     </row>
     <row r="4">
@@ -46074,28 +46074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1851.136716361312</v>
+        <v>1930.333272776791</v>
       </c>
       <c r="AB4" t="n">
-        <v>2532.806921713749</v>
+        <v>2641.167144106888</v>
       </c>
       <c r="AC4" t="n">
-        <v>2291.079383922229</v>
+        <v>2389.097858774694</v>
       </c>
       <c r="AD4" t="n">
-        <v>1851136.716361312</v>
+        <v>1930333.272776791</v>
       </c>
       <c r="AE4" t="n">
-        <v>2532806.921713748</v>
+        <v>2641167.144106888</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.304969221519425e-06</v>
+        <v>2.292779444076448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.37777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2291079.383922229</v>
+        <v>2389097.858774694</v>
       </c>
     </row>
     <row r="5">
@@ -46180,28 +46180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1678.770227966187</v>
+        <v>1758.052035727686</v>
       </c>
       <c r="AB5" t="n">
-        <v>2296.967488018753</v>
+        <v>2405.444355064541</v>
       </c>
       <c r="AC5" t="n">
-        <v>2077.74813477636</v>
+        <v>2175.872121879537</v>
       </c>
       <c r="AD5" t="n">
-        <v>1678770.227966187</v>
+        <v>1758052.035727686</v>
       </c>
       <c r="AE5" t="n">
-        <v>2296967.488018753</v>
+        <v>2405444.355064541</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.376364778503862e-06</v>
+        <v>2.418218621302184e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.52638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2077748.134776359</v>
+        <v>2175872.121879537</v>
       </c>
     </row>
     <row r="6">
@@ -46286,28 +46286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1582.834647255419</v>
+        <v>1652.206318555282</v>
       </c>
       <c r="AB6" t="n">
-        <v>2165.704194111166</v>
+        <v>2260.621575245779</v>
       </c>
       <c r="AC6" t="n">
-        <v>1959.012425410123</v>
+        <v>2044.871024906629</v>
       </c>
       <c r="AD6" t="n">
-        <v>1582834.647255419</v>
+        <v>1652206.318555282</v>
       </c>
       <c r="AE6" t="n">
-        <v>2165704.194111166</v>
+        <v>2260621.575245779</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.420217652944734e-06</v>
+        <v>2.495266391796441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.04722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1959012.425410123</v>
+        <v>2044871.024906629</v>
       </c>
     </row>
     <row r="7">
@@ -46392,28 +46392,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1499.988761571736</v>
+        <v>1579.185228478664</v>
       </c>
       <c r="AB7" t="n">
-        <v>2052.350798416225</v>
+        <v>2160.710898339816</v>
       </c>
       <c r="AC7" t="n">
-        <v>1856.477318707816</v>
+        <v>1954.495682779056</v>
       </c>
       <c r="AD7" t="n">
-        <v>1499988.761571736</v>
+        <v>1579185.228478664</v>
       </c>
       <c r="AE7" t="n">
-        <v>2052350.798416225</v>
+        <v>2160710.898339816</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.452684167004468e-06</v>
+        <v>2.552308776267627e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.71111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1856477.318707816</v>
+        <v>1954495.682779056</v>
       </c>
     </row>
     <row r="8">
@@ -46498,28 +46498,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1449.794429044224</v>
+        <v>1519.251351690107</v>
       </c>
       <c r="AB8" t="n">
-        <v>1983.672698234417</v>
+        <v>2078.706724021679</v>
       </c>
       <c r="AC8" t="n">
-        <v>1794.353760017041</v>
+        <v>1880.31787176426</v>
       </c>
       <c r="AD8" t="n">
-        <v>1449794.429044224</v>
+        <v>1519251.351690107</v>
       </c>
       <c r="AE8" t="n">
-        <v>1983672.698234417</v>
+        <v>2078706.724021679</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.473302711478421e-06</v>
+        <v>2.588534745552646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.50555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1794353.760017041</v>
+        <v>1880317.87176426</v>
       </c>
     </row>
     <row r="9">
@@ -46604,28 +46604,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1384.221530494932</v>
+        <v>1453.507860940223</v>
       </c>
       <c r="AB9" t="n">
-        <v>1893.95296556716</v>
+        <v>1988.753579579576</v>
       </c>
       <c r="AC9" t="n">
-        <v>1713.196752713112</v>
+        <v>1798.94972917768</v>
       </c>
       <c r="AD9" t="n">
-        <v>1384221.530494932</v>
+        <v>1453507.860940223</v>
       </c>
       <c r="AE9" t="n">
-        <v>1893952.96556716</v>
+        <v>1988753.579579576</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.501768612431268e-06</v>
+        <v>2.638548210610321e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.23055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>1713196.752713112</v>
+        <v>1798949.72917768</v>
       </c>
     </row>
     <row r="10">
@@ -46710,28 +46710,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1370.004432310412</v>
+        <v>1439.290762755703</v>
       </c>
       <c r="AB10" t="n">
-        <v>1874.500504616994</v>
+        <v>1969.30111862941</v>
       </c>
       <c r="AC10" t="n">
-        <v>1695.60080733433</v>
+        <v>1781.353783798898</v>
       </c>
       <c r="AD10" t="n">
-        <v>1370004.432310412</v>
+        <v>1439290.762755703</v>
       </c>
       <c r="AE10" t="n">
-        <v>1874500.504616994</v>
+        <v>1969301.11862941</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.501307003226627e-06</v>
+        <v>2.637737181447223e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.23472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1695600.80733433</v>
+        <v>1781353.783798898</v>
       </c>
     </row>
     <row r="11">
@@ -46816,28 +46816,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1333.188628108782</v>
+        <v>1402.474958554074</v>
       </c>
       <c r="AB11" t="n">
-        <v>1824.127497109674</v>
+        <v>1918.92811112209</v>
       </c>
       <c r="AC11" t="n">
-        <v>1650.035328964548</v>
+        <v>1735.788305429116</v>
       </c>
       <c r="AD11" t="n">
-        <v>1333188.628108782</v>
+        <v>1402474.958554074</v>
       </c>
       <c r="AE11" t="n">
-        <v>1824127.497109674</v>
+        <v>1918928.11112209</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.511924014933365e-06</v>
+        <v>2.656390852198464e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.13472222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1650035.328964548</v>
+        <v>1735788.305429116</v>
       </c>
     </row>
     <row r="12">
@@ -46922,28 +46922,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1296.848565338656</v>
+        <v>1366.134895783948</v>
       </c>
       <c r="AB12" t="n">
-        <v>1774.405420017167</v>
+        <v>1869.206034029583</v>
       </c>
       <c r="AC12" t="n">
-        <v>1605.058657124376</v>
+        <v>1690.811633588945</v>
       </c>
       <c r="AD12" t="n">
-        <v>1296848.565338657</v>
+        <v>1366134.895783948</v>
       </c>
       <c r="AE12" t="n">
-        <v>1774405.420017167</v>
+        <v>1869206.034029583</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.521463938495941e-06</v>
+        <v>2.673152121569145e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.04583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1605058.657124376</v>
+        <v>1690811.633588945</v>
       </c>
     </row>
     <row r="13">
@@ -47028,28 +47028,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1273.488478224448</v>
+        <v>1342.77480866974</v>
       </c>
       <c r="AB13" t="n">
-        <v>1742.443118253198</v>
+        <v>1837.243732265614</v>
       </c>
       <c r="AC13" t="n">
-        <v>1576.146792581389</v>
+        <v>1661.899769045957</v>
       </c>
       <c r="AD13" t="n">
-        <v>1273488.478224448</v>
+        <v>1342774.808669739</v>
       </c>
       <c r="AE13" t="n">
-        <v>1742443.118253198</v>
+        <v>1837243.732265614</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.526080030542348e-06</v>
+        <v>2.681262413200119e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.00416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1576146.792581389</v>
+        <v>1661899.769045957</v>
       </c>
     </row>
     <row r="14">
@@ -47134,28 +47134,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1260.083794260522</v>
+        <v>1339.194920312878</v>
       </c>
       <c r="AB14" t="n">
-        <v>1724.102238280835</v>
+        <v>1832.345571082228</v>
       </c>
       <c r="AC14" t="n">
-        <v>1559.556340452001</v>
+        <v>1657.469081491301</v>
       </c>
       <c r="AD14" t="n">
-        <v>1260083.794260522</v>
+        <v>1339194.920312878</v>
       </c>
       <c r="AE14" t="n">
-        <v>1724102.238280835</v>
+        <v>1832345.571082228</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.529003555505073e-06</v>
+        <v>2.686398931233069e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.97777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1559556.340452001</v>
+        <v>1657469.081491301</v>
       </c>
     </row>
     <row r="15">
@@ -47240,28 +47240,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1266.594210225501</v>
+        <v>1345.705336277857</v>
       </c>
       <c r="AB15" t="n">
-        <v>1733.010076623402</v>
+        <v>1841.253409424794</v>
       </c>
       <c r="AC15" t="n">
-        <v>1567.614027205382</v>
+        <v>1665.526768244682</v>
       </c>
       <c r="AD15" t="n">
-        <v>1266594.210225501</v>
+        <v>1345705.336277857</v>
       </c>
       <c r="AE15" t="n">
-        <v>1733010.076623402</v>
+        <v>1841253.409424794</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.529003555505073e-06</v>
+        <v>2.686398931233069e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.97777777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>1567614.027205382</v>
+        <v>1665526.768244682</v>
       </c>
     </row>
   </sheetData>
@@ -47537,28 +47537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7514.3644698017</v>
+        <v>7698.921450850607</v>
       </c>
       <c r="AB2" t="n">
-        <v>10281.48497794685</v>
+        <v>10534.00398149735</v>
       </c>
       <c r="AC2" t="n">
-        <v>9300.234481806016</v>
+        <v>9528.65342607029</v>
       </c>
       <c r="AD2" t="n">
-        <v>7514364.4698017</v>
+        <v>7698921.450850608</v>
       </c>
       <c r="AE2" t="n">
-        <v>10281484.97794685</v>
+        <v>10534003.98149735</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.936881867883815e-07</v>
+        <v>1.015140637374404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9300234.481806016</v>
+        <v>9528653.42607029</v>
       </c>
     </row>
     <row r="3">
@@ -47643,28 +47643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2896.746005219934</v>
+        <v>3009.412298007362</v>
       </c>
       <c r="AB3" t="n">
-        <v>3963.455679756543</v>
+        <v>4117.610672034349</v>
       </c>
       <c r="AC3" t="n">
-        <v>3585.189032425413</v>
+        <v>3724.63168859811</v>
       </c>
       <c r="AD3" t="n">
-        <v>2896746.005219934</v>
+        <v>3009412.298007362</v>
       </c>
       <c r="AE3" t="n">
-        <v>3963455.679756543</v>
+        <v>4117610.672034349</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.030206174277142e-06</v>
+        <v>1.761537749369969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.99027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3585189.032425413</v>
+        <v>3724631.68859811</v>
       </c>
     </row>
     <row r="4">
@@ -47749,28 +47749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2287.024863971789</v>
+        <v>2379.175432722937</v>
       </c>
       <c r="AB4" t="n">
-        <v>3129.208315302468</v>
+        <v>3255.292788863967</v>
       </c>
       <c r="AC4" t="n">
-        <v>2830.561065561336</v>
+        <v>2944.612213926792</v>
       </c>
       <c r="AD4" t="n">
-        <v>2287024.863971789</v>
+        <v>2379175.432722937</v>
       </c>
       <c r="AE4" t="n">
-        <v>3129208.315302468</v>
+        <v>3255292.788863968</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.188859111306005e-06</v>
+        <v>2.032816591025966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.32222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2830561.065561336</v>
+        <v>2944612.213926792</v>
       </c>
     </row>
     <row r="5">
@@ -47855,28 +47855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2043.978461129565</v>
+        <v>2125.956463962869</v>
       </c>
       <c r="AB5" t="n">
-        <v>2796.661504483016</v>
+        <v>2908.827424573781</v>
       </c>
       <c r="AC5" t="n">
-        <v>2529.752055634231</v>
+        <v>2631.21301773739</v>
       </c>
       <c r="AD5" t="n">
-        <v>2043978.461129565</v>
+        <v>2125956.463962869</v>
       </c>
       <c r="AE5" t="n">
-        <v>2796661.504483016</v>
+        <v>2908827.424573781</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271002781505996e-06</v>
+        <v>2.173273112780567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.20277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2529752.05563423</v>
+        <v>2631213.01773739</v>
       </c>
     </row>
     <row r="6">
@@ -47961,28 +47961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1901.291622274673</v>
+        <v>1983.354876453997</v>
       </c>
       <c r="AB6" t="n">
-        <v>2601.431076662695</v>
+        <v>2713.713641406107</v>
       </c>
       <c r="AC6" t="n">
-        <v>2353.154145837454</v>
+        <v>2454.720620191325</v>
       </c>
       <c r="AD6" t="n">
-        <v>1901291.622274673</v>
+        <v>1983354.876453997</v>
       </c>
       <c r="AE6" t="n">
-        <v>2601431.076662695</v>
+        <v>2713713.641406107</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.322750328256531e-06</v>
+        <v>2.26175565085341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.56805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2353154.145837454</v>
+        <v>2454720.620191325</v>
       </c>
     </row>
     <row r="7">
@@ -48067,28 +48067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1815.550306740559</v>
+        <v>1887.355743656019</v>
       </c>
       <c r="AB7" t="n">
-        <v>2484.116026109044</v>
+        <v>2582.363392729079</v>
       </c>
       <c r="AC7" t="n">
-        <v>2247.035479055936</v>
+        <v>2335.9062548968</v>
       </c>
       <c r="AD7" t="n">
-        <v>1815550.306740559</v>
+        <v>1887355.743656019</v>
       </c>
       <c r="AE7" t="n">
-        <v>2484116.026109044</v>
+        <v>2582363.392729079</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.357594664893712e-06</v>
+        <v>2.321335583366643e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.16944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>2247035.479055936</v>
+        <v>2335906.2548968</v>
       </c>
     </row>
     <row r="8">
@@ -48173,28 +48173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1741.711698720292</v>
+        <v>1823.689612045045</v>
       </c>
       <c r="AB8" t="n">
-        <v>2383.086785086233</v>
+        <v>2495.252582707448</v>
       </c>
       <c r="AC8" t="n">
-        <v>2155.648327000912</v>
+        <v>2257.109178322844</v>
       </c>
       <c r="AD8" t="n">
-        <v>1741711.698720292</v>
+        <v>1823689.612045045</v>
       </c>
       <c r="AE8" t="n">
-        <v>2383086.785086233</v>
+        <v>2495252.582707448</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383542575155442e-06</v>
+        <v>2.365703618216923e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.88472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>2155648.327000912</v>
+        <v>2257109.178322844</v>
       </c>
     </row>
     <row r="9">
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1690.652935378766</v>
+        <v>1772.630848703519</v>
       </c>
       <c r="AB9" t="n">
-        <v>2313.225932528697</v>
+        <v>2425.391730149912</v>
       </c>
       <c r="AC9" t="n">
-        <v>2092.454896161145</v>
+        <v>2193.915747483076</v>
       </c>
       <c r="AD9" t="n">
-        <v>1690652.935378766</v>
+        <v>1772630.848703519</v>
       </c>
       <c r="AE9" t="n">
-        <v>2313225.932528697</v>
+        <v>2425391.730149912</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403559534500205e-06</v>
+        <v>2.399930387958568e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.67222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2092454.896161145</v>
+        <v>2193915.747483077</v>
       </c>
     </row>
     <row r="10">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1647.558388204761</v>
+        <v>1719.278484265649</v>
       </c>
       <c r="AB10" t="n">
-        <v>2254.262071887982</v>
+        <v>2352.392671385819</v>
       </c>
       <c r="AC10" t="n">
-        <v>2039.118463623681</v>
+        <v>2127.883616432606</v>
       </c>
       <c r="AD10" t="n">
-        <v>1647558.388204761</v>
+        <v>1719278.484265649</v>
       </c>
       <c r="AE10" t="n">
-        <v>2254262.071887982</v>
+        <v>2352392.671385819</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.420166197067712e-06</v>
+        <v>2.428325930262747e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>2039118.463623681</v>
+        <v>2127883.616432606</v>
       </c>
     </row>
     <row r="11">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1650.77274487835</v>
+        <v>1732.750658203103</v>
       </c>
       <c r="AB11" t="n">
-        <v>2258.660096496194</v>
+        <v>2370.825894117409</v>
       </c>
       <c r="AC11" t="n">
-        <v>2043.096746935953</v>
+        <v>2144.557598257884</v>
       </c>
       <c r="AD11" t="n">
-        <v>1650772.74487835</v>
+        <v>1732750.658203103</v>
       </c>
       <c r="AE11" t="n">
-        <v>2258660.096496195</v>
+        <v>2370825.894117409</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415273162561214e-06</v>
+        <v>2.419959386548123e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.55138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>2043096.746935952</v>
+        <v>2144557.598257884</v>
       </c>
     </row>
     <row r="12">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1591.916927817721</v>
+        <v>1663.637023878609</v>
       </c>
       <c r="AB12" t="n">
-        <v>2178.130971058447</v>
+        <v>2276.261570556284</v>
       </c>
       <c r="AC12" t="n">
-        <v>1970.253208206646</v>
+        <v>2059.018361015571</v>
       </c>
       <c r="AD12" t="n">
-        <v>1591916.927817721</v>
+        <v>1663637.023878609</v>
       </c>
       <c r="AE12" t="n">
-        <v>2178130.971058447</v>
+        <v>2276261.570556284</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.438255597364461e-06</v>
+        <v>2.459256788844085e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.31805555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1970253.208206646</v>
+        <v>2059018.361015571</v>
       </c>
     </row>
     <row r="13">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1562.200023424277</v>
+        <v>1633.920119485165</v>
       </c>
       <c r="AB13" t="n">
-        <v>2137.470991450041</v>
+        <v>2235.601590947878</v>
       </c>
       <c r="AC13" t="n">
-        <v>1933.473759985427</v>
+        <v>2022.238912794352</v>
       </c>
       <c r="AD13" t="n">
-        <v>1562200.023424277</v>
+        <v>1633920.119485165</v>
       </c>
       <c r="AE13" t="n">
-        <v>2137470.991450042</v>
+        <v>2235601.590947879</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.446558928648214e-06</v>
+        <v>2.473454559996174e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1933473.759985427</v>
+        <v>2022238.912794352</v>
       </c>
     </row>
     <row r="14">
@@ -48809,28 +48809,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1532.831280006129</v>
+        <v>1604.551376067017</v>
       </c>
       <c r="AB14" t="n">
-        <v>2097.287381047815</v>
+        <v>2195.417980545652</v>
       </c>
       <c r="AC14" t="n">
-        <v>1897.125216961938</v>
+        <v>1985.890369770863</v>
       </c>
       <c r="AD14" t="n">
-        <v>1532831.280006129</v>
+        <v>1604551.376067017</v>
       </c>
       <c r="AE14" t="n">
-        <v>2097287.381047815</v>
+        <v>2195417.980545652</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.455307081250741e-06</v>
+        <v>2.488412926031412e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.15</v>
       </c>
       <c r="AH14" t="n">
-        <v>1897125.216961938</v>
+        <v>1985890.369770863</v>
       </c>
     </row>
     <row r="15">
@@ -48915,28 +48915,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1508.905768246602</v>
+        <v>1580.625864307491</v>
       </c>
       <c r="AB15" t="n">
-        <v>2064.551440339347</v>
+        <v>2162.682039837184</v>
       </c>
       <c r="AC15" t="n">
-        <v>1867.513548489505</v>
+        <v>1956.278701298429</v>
       </c>
       <c r="AD15" t="n">
-        <v>1508905.768246602</v>
+        <v>1580625.864307491</v>
       </c>
       <c r="AE15" t="n">
-        <v>2064551.440339347</v>
+        <v>2162682.039837184</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.461534579713556e-06</v>
+        <v>2.499061254395479e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.09027777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>1867513.548489504</v>
+        <v>1956278.701298429</v>
       </c>
     </row>
     <row r="16">
@@ -49021,28 +49021,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1483.62687800035</v>
+        <v>1555.346974061239</v>
       </c>
       <c r="AB16" t="n">
-        <v>2029.963747478496</v>
+        <v>2128.094346976333</v>
       </c>
       <c r="AC16" t="n">
-        <v>1836.226856491161</v>
+        <v>1924.992009300086</v>
       </c>
       <c r="AD16" t="n">
-        <v>1483626.87800035</v>
+        <v>1555346.974061239</v>
       </c>
       <c r="AE16" t="n">
-        <v>2029963.747478496</v>
+        <v>2128094.346976333</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.467465530630522e-06</v>
+        <v>2.509202519504114e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.03333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1836226.856491161</v>
+        <v>1924992.009300086</v>
       </c>
     </row>
     <row r="17">
@@ -49127,28 +49127,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1448.487022939582</v>
+        <v>1530.379595409763</v>
       </c>
       <c r="AB17" t="n">
-        <v>1981.883847523359</v>
+        <v>2093.932878022376</v>
       </c>
       <c r="AC17" t="n">
-        <v>1792.735634707179</v>
+        <v>1894.090862997173</v>
       </c>
       <c r="AD17" t="n">
-        <v>1448487.022939582</v>
+        <v>1530379.595409763</v>
       </c>
       <c r="AE17" t="n">
-        <v>1981883.847523359</v>
+        <v>2093932.878022376</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.472210291364096e-06</v>
+        <v>2.517315531591022e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.9875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1792735.634707179</v>
+        <v>1894090.862997172</v>
       </c>
     </row>
     <row r="18">
@@ -49233,28 +49233,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1420.501224166541</v>
+        <v>1502.393796636722</v>
       </c>
       <c r="AB18" t="n">
-        <v>1943.59244299578</v>
+        <v>2055.641473494797</v>
       </c>
       <c r="AC18" t="n">
-        <v>1758.098708085388</v>
+        <v>1859.453936375381</v>
       </c>
       <c r="AD18" t="n">
-        <v>1420501.224166541</v>
+        <v>1502393.796636722</v>
       </c>
       <c r="AE18" t="n">
-        <v>1943592.44299578</v>
+        <v>2055641.473494797</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.480365348874925e-06</v>
+        <v>2.531259771115396e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.91111111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>1758098.708085388</v>
+        <v>1859453.936375381</v>
       </c>
     </row>
     <row r="19">
@@ -49339,28 +49339,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1416.635323246986</v>
+        <v>1498.527895717167</v>
       </c>
       <c r="AB19" t="n">
-        <v>1938.302946806133</v>
+        <v>2050.351977305151</v>
       </c>
       <c r="AC19" t="n">
-        <v>1753.314033988227</v>
+        <v>1854.66926227822</v>
       </c>
       <c r="AD19" t="n">
-        <v>1416635.323246986</v>
+        <v>1498527.895717167</v>
       </c>
       <c r="AE19" t="n">
-        <v>1938302.946806133</v>
+        <v>2050351.977305151</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.476658504551821e-06</v>
+        <v>2.524921480422499e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.94583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1753314.033988227</v>
+        <v>1854669.26227822</v>
       </c>
     </row>
     <row r="20">
@@ -49445,28 +49445,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1417.737598867796</v>
+        <v>1499.630171337977</v>
       </c>
       <c r="AB20" t="n">
-        <v>1939.811128939493</v>
+        <v>2051.86015943851</v>
       </c>
       <c r="AC20" t="n">
-        <v>1754.678277335526</v>
+        <v>1856.033505625519</v>
       </c>
       <c r="AD20" t="n">
-        <v>1417737.598867796</v>
+        <v>1499630.171337977</v>
       </c>
       <c r="AE20" t="n">
-        <v>1939811.128939493</v>
+        <v>2051860.15943851</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.478289516053987e-06</v>
+        <v>2.527710328327374e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.93055555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>1754678.277335526</v>
+        <v>1856033.505625519</v>
       </c>
     </row>
     <row r="21">
@@ -49551,28 +49551,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1423.038732428708</v>
+        <v>1504.931304898889</v>
       </c>
       <c r="AB21" t="n">
-        <v>1947.064373747041</v>
+        <v>2059.113404246059</v>
       </c>
       <c r="AC21" t="n">
-        <v>1761.239282638634</v>
+        <v>1862.594510928628</v>
       </c>
       <c r="AD21" t="n">
-        <v>1423038.732428709</v>
+        <v>1504931.30489889</v>
       </c>
       <c r="AE21" t="n">
-        <v>1947064.373747041</v>
+        <v>2059113.404246058</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.478289516053987e-06</v>
+        <v>2.527710328327374e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.93055555555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>1761239.282638634</v>
+        <v>1862594.510928628</v>
       </c>
     </row>
     <row r="22">
@@ -49657,28 +49657,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1429.532184602545</v>
+        <v>1511.424757072727</v>
       </c>
       <c r="AB22" t="n">
-        <v>1955.949001482176</v>
+        <v>2067.998031981193</v>
       </c>
       <c r="AC22" t="n">
-        <v>1769.275973972382</v>
+        <v>1870.631202262375</v>
       </c>
       <c r="AD22" t="n">
-        <v>1429532.184602545</v>
+        <v>1511424.757072726</v>
       </c>
       <c r="AE22" t="n">
-        <v>1955949.001482176</v>
+        <v>2067998.031981193</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.478141242281063e-06</v>
+        <v>2.527456796699658e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.93194444444445</v>
       </c>
       <c r="AH22" t="n">
-        <v>1769275.973972382</v>
+        <v>1870631.202262375</v>
       </c>
     </row>
   </sheetData>
@@ -49954,28 +49954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.2821161422022</v>
+        <v>755.3002925301597</v>
       </c>
       <c r="AB2" t="n">
-        <v>944.4744444034542</v>
+        <v>1033.435181736958</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.3351290077958</v>
+        <v>934.8055784273695</v>
       </c>
       <c r="AD2" t="n">
-        <v>690282.1161422022</v>
+        <v>755300.2925301597</v>
       </c>
       <c r="AE2" t="n">
-        <v>944474.4444034542</v>
+        <v>1033435.181736958</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.632020978045732e-06</v>
+        <v>3.498172649247327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.21388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>854335.1290077958</v>
+        <v>934805.5784273695</v>
       </c>
     </row>
   </sheetData>
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2521.842294666883</v>
+        <v>2625.002978392757</v>
       </c>
       <c r="AB2" t="n">
-        <v>3450.495883393425</v>
+        <v>3591.644881995336</v>
       </c>
       <c r="AC2" t="n">
-        <v>3121.185399083614</v>
+        <v>3248.863335362818</v>
       </c>
       <c r="AD2" t="n">
-        <v>2521842.294666883</v>
+        <v>2625002.978392757</v>
       </c>
       <c r="AE2" t="n">
-        <v>3450495.883393425</v>
+        <v>3591644.881995336</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042668869658911e-06</v>
+        <v>1.921047048799718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.75416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3121185.399083614</v>
+        <v>3248863.335362818</v>
       </c>
     </row>
     <row r="3">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1549.832370348729</v>
+        <v>1634.151225269871</v>
       </c>
       <c r="AB3" t="n">
-        <v>2120.549022889732</v>
+        <v>2235.917800078182</v>
       </c>
       <c r="AC3" t="n">
-        <v>1918.166800354381</v>
+        <v>2022.524943369061</v>
       </c>
       <c r="AD3" t="n">
-        <v>1549832.370348729</v>
+        <v>1634151.225269872</v>
       </c>
       <c r="AE3" t="n">
-        <v>2120549.022889731</v>
+        <v>2235917.800078182</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.369268358980418e-06</v>
+        <v>2.522784573874023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.56527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1918166.800354381</v>
+        <v>2022524.943369061</v>
       </c>
     </row>
     <row r="4">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1329.427804593549</v>
+        <v>1404.283164193592</v>
       </c>
       <c r="AB4" t="n">
-        <v>1818.981772460309</v>
+        <v>1921.402177850482</v>
       </c>
       <c r="AC4" t="n">
-        <v>1645.380705053648</v>
+        <v>1738.026250701325</v>
       </c>
       <c r="AD4" t="n">
-        <v>1329427.804593549</v>
+        <v>1404283.164193592</v>
       </c>
       <c r="AE4" t="n">
-        <v>1818981.772460309</v>
+        <v>1921402.177850482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.482761681519642e-06</v>
+        <v>2.731888363837344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.29722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1645380.705053648</v>
+        <v>1738026.250701325</v>
       </c>
     </row>
     <row r="5">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1213.992469759193</v>
+        <v>1288.933080705256</v>
       </c>
       <c r="AB5" t="n">
-        <v>1661.03805469239</v>
+        <v>1763.575104735213</v>
       </c>
       <c r="AC5" t="n">
-        <v>1502.5109140341</v>
+        <v>1595.261971932489</v>
       </c>
       <c r="AD5" t="n">
-        <v>1213992.469759193</v>
+        <v>1288933.080705256</v>
       </c>
       <c r="AE5" t="n">
-        <v>1661038.05469239</v>
+        <v>1763575.104735213</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.539753292406245e-06</v>
+        <v>2.83689156196281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1502510.9140341</v>
+        <v>1595261.971932489</v>
       </c>
     </row>
     <row r="6">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1137.956186037707</v>
+        <v>1203.518642517242</v>
       </c>
       <c r="AB6" t="n">
-        <v>1557.001856820563</v>
+        <v>1646.707302187307</v>
       </c>
       <c r="AC6" t="n">
-        <v>1408.403784871439</v>
+        <v>1489.547868434764</v>
       </c>
       <c r="AD6" t="n">
-        <v>1137956.186037707</v>
+        <v>1203518.642517242</v>
       </c>
       <c r="AE6" t="n">
-        <v>1557001.856820563</v>
+        <v>1646707.302187307</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576005835720932e-06</v>
+        <v>2.903684427246058e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.39027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1408403.784871439</v>
+        <v>1489547.868434764</v>
       </c>
     </row>
     <row r="7">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1082.935220891005</v>
+        <v>1148.49767737054</v>
       </c>
       <c r="AB7" t="n">
-        <v>1481.719744953178</v>
+        <v>1571.425190319922</v>
       </c>
       <c r="AC7" t="n">
-        <v>1340.306492101569</v>
+        <v>1421.450575664894</v>
       </c>
       <c r="AD7" t="n">
-        <v>1082935.220891005</v>
+        <v>1148497.677370541</v>
       </c>
       <c r="AE7" t="n">
-        <v>1481719.744953178</v>
+        <v>1571425.190319922</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.597561402016152e-06</v>
+        <v>2.943399103900962e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.19722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1340306.492101569</v>
+        <v>1421450.575664894</v>
       </c>
     </row>
     <row r="8">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1073.788102331657</v>
+        <v>1139.350558811192</v>
       </c>
       <c r="AB8" t="n">
-        <v>1469.204253797886</v>
+        <v>1558.90969916463</v>
       </c>
       <c r="AC8" t="n">
-        <v>1328.985461856537</v>
+        <v>1410.129545419862</v>
       </c>
       <c r="AD8" t="n">
-        <v>1073788.102331656</v>
+        <v>1139350.558811192</v>
       </c>
       <c r="AE8" t="n">
-        <v>1469204.253797886</v>
+        <v>1558909.69916463</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.60148059588801e-06</v>
+        <v>2.950619954201854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.16111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1328985.461856537</v>
+        <v>1410129.545419862</v>
       </c>
     </row>
     <row r="9">
@@ -50993,28 +50993,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1078.883941605459</v>
+        <v>1144.446398084994</v>
       </c>
       <c r="AB9" t="n">
-        <v>1476.176605904866</v>
+        <v>1565.882051271609</v>
       </c>
       <c r="AC9" t="n">
-        <v>1335.292382464183</v>
+        <v>1416.436466027508</v>
       </c>
       <c r="AD9" t="n">
-        <v>1078883.941605459</v>
+        <v>1144446.398084994</v>
       </c>
       <c r="AE9" t="n">
-        <v>1476176.605904866</v>
+        <v>1565882.051271609</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.602786993845296e-06</v>
+        <v>2.953026904302151e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.15138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1335292.382464183</v>
+        <v>1416436.466027508</v>
       </c>
     </row>
   </sheetData>
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3661.18638963438</v>
+        <v>3787.29473256552</v>
       </c>
       <c r="AB2" t="n">
-        <v>5009.396738442037</v>
+        <v>5181.943736747869</v>
       </c>
       <c r="AC2" t="n">
-        <v>4531.306944457419</v>
+        <v>4687.386299416168</v>
       </c>
       <c r="AD2" t="n">
-        <v>3661186.38963438</v>
+        <v>3787294.732565519</v>
       </c>
       <c r="AE2" t="n">
-        <v>5009396.738442036</v>
+        <v>5181943.736747868</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.68340705487381e-07</v>
+        <v>1.551227300341567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.14722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4531306.944457419</v>
+        <v>4687386.299416169</v>
       </c>
     </row>
     <row r="3">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1960.571819851524</v>
+        <v>2047.995698019645</v>
       </c>
       <c r="AB3" t="n">
-        <v>2682.540858245083</v>
+        <v>2802.158065224007</v>
       </c>
       <c r="AC3" t="n">
-        <v>2426.522923703913</v>
+        <v>2534.724032332572</v>
       </c>
       <c r="AD3" t="n">
-        <v>1960571.819851523</v>
+        <v>2047995.698019645</v>
       </c>
       <c r="AE3" t="n">
-        <v>2682540.858245083</v>
+        <v>2802158.065224007</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240329499473103e-06</v>
+        <v>2.215758133694482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2426522.923703913</v>
+        <v>2534724.032332572</v>
       </c>
     </row>
     <row r="4">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1638.505278244921</v>
+        <v>1725.758474703899</v>
       </c>
       <c r="AB4" t="n">
-        <v>2241.875207445905</v>
+        <v>2361.258880180434</v>
       </c>
       <c r="AC4" t="n">
-        <v>2027.913784138882</v>
+        <v>2135.903646703665</v>
       </c>
       <c r="AD4" t="n">
-        <v>1638505.278244921</v>
+        <v>1725758.474703899</v>
       </c>
       <c r="AE4" t="n">
-        <v>2241875.207445905</v>
+        <v>2361258.880180434</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.369723741844299e-06</v>
+        <v>2.446911504721298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.94166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2027913.784138883</v>
+        <v>2135903.646703665</v>
       </c>
     </row>
     <row r="5">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1499.803290608384</v>
+        <v>1577.34281233501</v>
       </c>
       <c r="AB5" t="n">
-        <v>2052.097028861765</v>
+        <v>2158.190023290405</v>
       </c>
       <c r="AC5" t="n">
-        <v>1856.247768563466</v>
+        <v>1952.215396506291</v>
       </c>
       <c r="AD5" t="n">
-        <v>1499803.290608384</v>
+        <v>1577342.81233501</v>
       </c>
       <c r="AE5" t="n">
-        <v>2052097.028861764</v>
+        <v>2158190.023290406</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.43701503678339e-06</v>
+        <v>2.567122492326982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.19583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1856247.768563466</v>
+        <v>1952215.39650629</v>
       </c>
     </row>
     <row r="6">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1404.808006296536</v>
+        <v>1482.432779369184</v>
       </c>
       <c r="AB6" t="n">
-        <v>1922.12028997013</v>
+        <v>2028.32992905142</v>
       </c>
       <c r="AC6" t="n">
-        <v>1738.67582720815</v>
+        <v>1834.748967401687</v>
       </c>
       <c r="AD6" t="n">
-        <v>1404808.006296536</v>
+        <v>1482432.779369184</v>
       </c>
       <c r="AE6" t="n">
-        <v>1922120.28997013</v>
+        <v>2028329.92905142</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.47789292623237e-06</v>
+        <v>2.6401478586295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.77638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1738675.82720815</v>
+        <v>1834748.967401688</v>
       </c>
     </row>
     <row r="7">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1342.962102182494</v>
+        <v>1411.043792723382</v>
       </c>
       <c r="AB7" t="n">
-        <v>1837.499995512571</v>
+        <v>1930.652368062821</v>
       </c>
       <c r="AC7" t="n">
-        <v>1662.131574888292</v>
+        <v>1746.393615742522</v>
       </c>
       <c r="AD7" t="n">
-        <v>1342962.102182494</v>
+        <v>1411043.792723382</v>
       </c>
       <c r="AE7" t="n">
-        <v>1837499.995512571</v>
+        <v>1930652.368062821</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.505564112936296e-06</v>
+        <v>2.689580414280435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.50416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1662131.574888292</v>
+        <v>1746393.615742522</v>
       </c>
     </row>
     <row r="8">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1289.068222525053</v>
+        <v>1356.97932086535</v>
       </c>
       <c r="AB8" t="n">
-        <v>1763.760011735096</v>
+        <v>1856.678972510499</v>
       </c>
       <c r="AC8" t="n">
-        <v>1595.429231667822</v>
+        <v>1679.480137239401</v>
       </c>
       <c r="AD8" t="n">
-        <v>1289068.222525053</v>
+        <v>1356979.32086535</v>
       </c>
       <c r="AE8" t="n">
-        <v>1763760.011735096</v>
+        <v>1856678.972510499</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.527260838874601e-06</v>
+        <v>2.728340031779464e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.29722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1595429.231667822</v>
+        <v>1679480.137239401</v>
       </c>
     </row>
     <row r="9">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1251.669127148632</v>
+        <v>1319.580225488928</v>
       </c>
       <c r="AB9" t="n">
-        <v>1712.588919509435</v>
+        <v>1805.507880284838</v>
       </c>
       <c r="AC9" t="n">
-        <v>1549.141836665098</v>
+        <v>1633.192742236678</v>
       </c>
       <c r="AD9" t="n">
-        <v>1251669.127148632</v>
+        <v>1319580.225488928</v>
       </c>
       <c r="AE9" t="n">
-        <v>1712588.919509435</v>
+        <v>1805507.880284838</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.53826642449548e-06</v>
+        <v>2.74800070732245e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.19583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1549141.836665099</v>
+        <v>1633192.742236678</v>
       </c>
     </row>
     <row r="10">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1212.270436980685</v>
+        <v>1280.181535320981</v>
       </c>
       <c r="AB10" t="n">
-        <v>1658.681893474111</v>
+        <v>1751.600854249514</v>
       </c>
       <c r="AC10" t="n">
-        <v>1500.3796215356</v>
+        <v>1584.430527107179</v>
       </c>
       <c r="AD10" t="n">
-        <v>1212270.436980685</v>
+        <v>1280181.535320981</v>
       </c>
       <c r="AE10" t="n">
-        <v>1658681.893474111</v>
+        <v>1751600.854249514</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550372568678447e-06</v>
+        <v>2.769627450419734e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.08472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1500379.6215356</v>
+        <v>1584430.527107179</v>
       </c>
     </row>
     <row r="11">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1193.016945316008</v>
+        <v>1260.928043656304</v>
       </c>
       <c r="AB11" t="n">
-        <v>1632.338416774396</v>
+        <v>1725.257377549799</v>
       </c>
       <c r="AC11" t="n">
-        <v>1476.550329278804</v>
+        <v>1560.601234850383</v>
       </c>
       <c r="AD11" t="n">
-        <v>1193016.945316008</v>
+        <v>1260928.043656304</v>
       </c>
       <c r="AE11" t="n">
-        <v>1632338.416774396</v>
+        <v>1725257.377549799</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.556189806792341e-06</v>
+        <v>2.78001952177817e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.03194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1476550.329278804</v>
+        <v>1560601.234850383</v>
       </c>
     </row>
     <row r="12">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1197.336204408959</v>
+        <v>1265.247302749255</v>
       </c>
       <c r="AB12" t="n">
-        <v>1638.248217617634</v>
+        <v>1731.167178393037</v>
       </c>
       <c r="AC12" t="n">
-        <v>1481.896107024021</v>
+        <v>1565.9470125956</v>
       </c>
       <c r="AD12" t="n">
-        <v>1197336.204408959</v>
+        <v>1265247.302749255</v>
       </c>
       <c r="AE12" t="n">
-        <v>1638248.217617634</v>
+        <v>1731167.178393037</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.556189806792341e-06</v>
+        <v>2.78001952177817e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.03194444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1481896.107024021</v>
+        <v>1565947.0125956</v>
       </c>
     </row>
   </sheetData>
